--- a/example/Estimation Tool.mm.p99nr.xlsx
+++ b/example/Estimation Tool.mm.p99nr.xlsx
@@ -289,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,20 +302,32 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -425,9 +437,11 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2295918367347"/>
     <col collapsed="false" hidden="true" max="2" min="2" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="50.0816326530612"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="3" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="50.0816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="3" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="3" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
@@ -464,65 +478,63 @@
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="3" t="n">
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9" t="n">
         <f aca="false">(E4+4*F4+G4)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="9" t="n">
         <f aca="false">(G4-E4)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="9" t="n">
         <f aca="false">J4*J4</f>
         <v>0.0277777777777778</v>
       </c>
@@ -531,29 +543,27 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="n">
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="0"/>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="9" t="n">
         <f aca="false">(E5+4*F5+G5)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="9" t="n">
         <f aca="false">(G5-E5)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="9" t="n">
         <f aca="false">J5*J5</f>
         <v>0.25</v>
       </c>
@@ -562,29 +572,27 @@
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3" t="n">
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="0"/>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="9" t="n">
         <f aca="false">(E6+4*F6+G6)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="9" t="n">
         <f aca="false">(G6-E6)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="9" t="n">
         <f aca="false">J6*J6</f>
         <v>0.25</v>
       </c>
@@ -593,29 +601,27 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3" t="n">
+      <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="n">
+      <c r="F7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="0"/>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="9" t="n">
         <f aca="false">(E7+4*F7+G7)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="9" t="n">
         <f aca="false">(G7-E7)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="9" t="n">
         <f aca="false">J7*J7</f>
         <v>0.25</v>
       </c>
@@ -624,77 +630,73 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3" t="n">
+      <c r="B8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H8" s="0"/>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="9" t="n">
         <f aca="false">(E8+4*F8+G8)/6</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="9" t="n">
         <f aca="false">(G8-E8)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="9" t="n">
         <f aca="false">J8*J8</f>
         <v>0.444444444444444</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="0"/>
-      <c r="I10" s="3" t="n">
+      <c r="B10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="9" t="n">
         <f aca="false">(E10+4*F10+G10)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="9" t="n">
         <f aca="false">(G10-E10)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="9" t="n">
         <f aca="false">J10*J10</f>
         <v>0.0277777777777778</v>
       </c>
@@ -703,29 +705,27 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="n">
+      <c r="B11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H11" s="0"/>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="9" t="n">
         <f aca="false">(E11+4*F11+G11)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="9" t="n">
         <f aca="false">(G11-E11)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="9" t="n">
         <f aca="false">J11*J11</f>
         <v>0.25</v>
       </c>
@@ -734,29 +734,27 @@
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="0"/>
-      <c r="I12" s="3" t="n">
+      <c r="B12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="9" t="n">
         <f aca="false">(E12+4*F12+G12)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="J12" s="9" t="n">
         <f aca="false">(G12-E12)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="9" t="n">
         <f aca="false">J12*J12</f>
         <v>0.0277777777777778</v>
       </c>
@@ -765,98 +763,94 @@
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="n">
+      <c r="B14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H14" s="0"/>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="9" t="n">
         <f aca="false">(E14+4*F14+G14)/6</f>
         <v>3</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="9" t="n">
         <f aca="false">(G14-E14)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="9" t="n">
         <f aca="false">J14*J14</f>
         <v>0.444444444444444</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="n">
+      <c r="B16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="H16" s="0"/>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="9" t="n">
         <f aca="false">(E16+4*F16+G16)/6</f>
         <v>5.5</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="J16" s="9" t="n">
         <f aca="false">(G16-E16)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="K16" s="9" t="n">
         <f aca="false">J16*J16</f>
         <v>1.36111111111111</v>
       </c>
@@ -865,29 +859,27 @@
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3" t="n">
+      <c r="B17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="0"/>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="9" t="n">
         <f aca="false">(E17+4*F17+G17)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="9" t="n">
         <f aca="false">(G17-E17)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="K17" s="9" t="n">
         <f aca="false">J17*J17</f>
         <v>0.0277777777777778</v>
       </c>
@@ -896,29 +888,27 @@
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="0"/>
-      <c r="I18" s="3" t="n">
+      <c r="B18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="9" t="n">
         <f aca="false">(E18+4*F18+G18)/6</f>
         <v>1.83333333333333</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="J18" s="9" t="n">
         <f aca="false">(G18-E18)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="K18" s="9" t="n">
         <f aca="false">J18*J18</f>
         <v>0.0277777777777778</v>
       </c>
@@ -927,29 +917,27 @@
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3" t="n">
+      <c r="B19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="H19" s="0"/>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="9" t="n">
         <f aca="false">(E19+4*F19+G19)/6</f>
         <v>3.83333333333333</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="J19" s="9" t="n">
         <f aca="false">(G19-E19)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="K19" s="9" t="n">
         <f aca="false">J19*J19</f>
         <v>1.36111111111111</v>
       </c>
@@ -958,96 +946,92 @@
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" s="0"/>
-      <c r="I21" s="3" t="n">
+      <c r="B21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="9" t="n">
         <f aca="false">(E21+4*F21+G21)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="J21" s="9" t="n">
         <f aca="false">(G21-E21)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="K21" s="9" t="n">
         <f aca="false">J21*J21</f>
         <v>0.0277777777777778</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="6" t="n">
+      <c r="B22" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3" t="n">
+      <c r="B23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H23" s="0"/>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="9" t="n">
         <f aca="false">(E23+4*F23+G23)/6</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="J23" s="9" t="n">
         <f aca="false">(G23-E23)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="K23" s="9" t="n">
         <f aca="false">J23*J23</f>
         <v>0.444444444444444</v>
       </c>
@@ -1056,29 +1040,27 @@
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3" t="n">
+      <c r="B24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H24" s="0"/>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="9" t="n">
         <f aca="false">(E24+4*F24+G24)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J24" s="3" t="n">
+      <c r="J24" s="9" t="n">
         <f aca="false">(G24-E24)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K24" s="3" t="n">
+      <c r="K24" s="9" t="n">
         <f aca="false">J24*J24</f>
         <v>0.25</v>
       </c>
@@ -1087,29 +1069,27 @@
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3" t="n">
+      <c r="B25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H25" s="0"/>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="9" t="n">
         <f aca="false">(E25+4*F25+G25)/6</f>
         <v>3.83333333333333</v>
       </c>
-      <c r="J25" s="3" t="n">
+      <c r="J25" s="9" t="n">
         <f aca="false">(G25-E25)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K25" s="3" t="n">
+      <c r="K25" s="9" t="n">
         <f aca="false">J25*J25</f>
         <v>0.25</v>
       </c>
@@ -1118,29 +1098,27 @@
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="0"/>
-      <c r="I26" s="3" t="n">
+      <c r="B26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="9" t="n">
         <f aca="false">(E26+4*F26+G26)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J26" s="3" t="n">
+      <c r="J26" s="9" t="n">
         <f aca="false">(G26-E26)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K26" s="3" t="n">
+      <c r="K26" s="9" t="n">
         <f aca="false">J26*J26</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1149,31 +1127,30 @@
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" s="0"/>
-      <c r="I27" s="3" t="n">
+      <c r="E27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="9" t="n">
         <f aca="false">(E27+4*F27+G27)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J27" s="3" t="n">
+      <c r="J27" s="9" t="n">
         <f aca="false">(G27-E27)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K27" s="3" t="n">
+      <c r="K27" s="9" t="n">
         <f aca="false">J27*J27</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1182,48 +1159,46 @@
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="3" t="n">
+      <c r="B29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H29" s="0"/>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="9" t="n">
         <f aca="false">(E29+4*F29+G29)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J29" s="3" t="n">
+      <c r="J29" s="9" t="n">
         <f aca="false">(G29-E29)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K29" s="3" t="n">
+      <c r="K29" s="9" t="n">
         <f aca="false">J29*J29</f>
         <v>0.25</v>
       </c>
@@ -1232,29 +1207,27 @@
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3" t="n">
+      <c r="B30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="H30" s="0"/>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="9" t="n">
         <f aca="false">(E30+4*F30+G30)/6</f>
         <v>5</v>
       </c>
-      <c r="J30" s="3" t="n">
+      <c r="J30" s="9" t="n">
         <f aca="false">(G30-E30)/6</f>
         <v>1</v>
       </c>
-      <c r="K30" s="3" t="n">
+      <c r="K30" s="9" t="n">
         <f aca="false">J30*J30</f>
         <v>1</v>
       </c>
@@ -1263,62 +1236,60 @@
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3" t="n">
+      <c r="B31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="G31" s="3" t="n">
+      <c r="G31" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="H31" s="0"/>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="9" t="n">
         <f aca="false">(E31+4*F31+G31)/6</f>
         <v>5.83333333333333</v>
       </c>
-      <c r="J31" s="3" t="n">
+      <c r="J31" s="9" t="n">
         <f aca="false">(G31-E31)/6</f>
         <v>2.5</v>
       </c>
-      <c r="K31" s="3" t="n">
+      <c r="K31" s="9" t="n">
         <f aca="false">J31*J31</f>
         <v>6.25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8" t="n">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11" t="n">
         <f aca="false">SUMPRODUCT(E2:E31,B2:B31)</f>
         <v>27</v>
       </c>
-      <c r="F33" s="8" t="n">
+      <c r="F33" s="11" t="n">
         <f aca="false">SUMPRODUCT(F2:F31,B2:B31)</f>
         <v>54</v>
       </c>
-      <c r="G33" s="8" t="n">
+      <c r="G33" s="11" t="n">
         <f aca="false">SUMPRODUCT(G2:G31,B2:B31)</f>
         <v>103</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8" t="n">
+      <c r="H33" s="10"/>
+      <c r="I33" s="11" t="n">
         <f aca="false">SUMPRODUCT(I2:I31,B2:B31)</f>
         <v>57.6666666666667</v>
       </c>
-      <c r="J33" s="8" t="n">
+      <c r="J33" s="11" t="n">
         <f aca="false">SUMPRODUCT(J2:J31,B2:B31)</f>
         <v>12.6666666666667</v>
       </c>
-      <c r="K33" s="8" t="n">
+      <c r="K33" s="11" t="n">
         <f aca="false">SUMPRODUCT(K2:K31,B2:B31)</f>
         <v>13.2777777777778</v>
       </c>
@@ -1330,50 +1301,50 @@
       <c r="D34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="0"/>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="9" t="n">
         <f aca="false">SQRT(K33)</f>
         <v>3.64386851817924</v>
       </c>
       <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="0"/>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8" t="n">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="n">
         <f aca="false">I33-3*C35</f>
         <v>46.7350611121289</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="13" t="n">
         <f aca="false">C37*C36</f>
         <v>70.1025916681934</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8" t="n">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11" t="n">
         <f aca="false">I33+3*C35</f>
         <v>68.5982722212044</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="13" t="n">
         <f aca="false">C38*C36</f>
         <v>102.897408331807</v>
       </c>

--- a/example/Estimation Tool.mm.p99nr.xlsx
+++ b/example/Estimation Tool.mm.p99nr.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$31</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$31</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t xml:space="preserve">Task / Subtask</t>
   </si>
@@ -71,18 +71,18 @@
     <t xml:space="preserve">    Look for Math</t>
   </si>
   <si>
+    <t xml:space="preserve">  Code it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Choose a language/libs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Implementation</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Choose a MindMap editor</t>
   </si>
   <si>
-    <t xml:space="preserve">  Code it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Choose a language/libs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Implementation</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Check it with example project</t>
   </si>
   <si>
@@ -92,24 +92,24 @@
     <t xml:space="preserve">probe the approach with projects</t>
   </si>
   <si>
+    <t xml:space="preserve">  Real life testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find somewhere real projects, test how it works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Proof it with real projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Feedback analysis</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Proof it with test projects</t>
   </si>
   <si>
-    <t xml:space="preserve">  Real life testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find somewhere real projects, test how it works</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Proof it with real projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Documentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Feedback analysis</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Improvements</t>
   </si>
   <si>
@@ -119,18 +119,18 @@
     <t xml:space="preserve">make it available</t>
   </si>
   <si>
+    <t xml:space="preserve">  Clean up the code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Code structure &amp; Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Tests</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Publish it on GitHub</t>
   </si>
   <si>
-    <t xml:space="preserve">  Clean up the code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Code structure &amp; Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Tests</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Document the approach</t>
   </si>
   <si>
@@ -153,6 +153,36 @@
   </si>
   <si>
     <t xml:space="preserve">  Analyze feedbacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is a temporary branch for testing purposes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ...</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -222,7 +252,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,20 +261,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEEAF2"/>
-        <bgColor rgb="FFF2EFED"/>
+        <fgColor rgb="FFAEC5D5"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2EFED"/>
-        <bgColor rgb="FFDEEAF2"/>
+        <fgColor rgb="FFD6E1E9"/>
+        <bgColor rgb="FFE0E9EF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE9DFDB"/>
-        <bgColor rgb="FFDEEAF2"/>
+        <fgColor rgb="FFE0E9EF"/>
+        <bgColor rgb="FFEBF0F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF0F4"/>
+        <bgColor rgb="FFF4EFEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F8FA"/>
+        <bgColor rgb="FFEBF0F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4EFEB"/>
+        <bgColor rgb="FFEBF0F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9DED6"/>
+        <bgColor rgb="FFD6E1E9"/>
       </patternFill>
     </fill>
   </fills>
@@ -289,7 +343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,11 +372,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,11 +392,35 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,7 +428,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -358,7 +444,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF2EFED"/>
+      <rgbColor rgb="FFF5F8FA"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -371,16 +457,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAEC5D5"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFDEEAF2"/>
+      <rgbColor rgb="FFF4EFEB"/>
+      <rgbColor rgb="FFE0E9EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFE9DFDB"/>
+      <rgbColor rgb="FFD6E1E9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -390,13 +476,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFEBF0F4"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFE9DED6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -427,7 +513,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -482,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5"/>
@@ -494,21 +580,21 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="B3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -517,24 +603,24 @@
       <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="9" t="n">
+      <c r="E4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11" t="n">
         <f aca="false">(E4+4*F4+G4)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="11" t="n">
         <f aca="false">(G4-E4)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K4" s="9" t="n">
+      <c r="K4" s="11" t="n">
         <f aca="false">J4*J4</f>
         <v>0.0277777777777778</v>
       </c>
@@ -546,24 +632,24 @@
       <c r="B5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="9" t="n">
+      <c r="E5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="11" t="n">
         <f aca="false">(E5+4*F5+G5)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="11" t="n">
         <f aca="false">(G5-E5)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K5" s="9" t="n">
+      <c r="K5" s="11" t="n">
         <f aca="false">J5*J5</f>
         <v>0.25</v>
       </c>
@@ -575,24 +661,24 @@
       <c r="B6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="9" t="n">
+      <c r="E6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="11" t="n">
         <f aca="false">(E6+4*F6+G6)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J6" s="9" t="n">
+      <c r="J6" s="11" t="n">
         <f aca="false">(G6-E6)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K6" s="9" t="n">
+      <c r="K6" s="11" t="n">
         <f aca="false">J6*J6</f>
         <v>0.25</v>
       </c>
@@ -604,73 +690,73 @@
       <c r="B7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="n">
+      <c r="E7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="11" t="n">
         <f aca="false">(E7+4*F7+G7)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="11" t="n">
         <f aca="false">(G7-E7)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K7" s="9" t="n">
+      <c r="K7" s="11" t="n">
         <f aca="false">J7*J7</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <f aca="false">(E8+4*F8+G8)/6</f>
-        <v>2.33333333333333</v>
-      </c>
-      <c r="J8" s="9" t="n">
-        <f aca="false">(G8-E8)/6</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <f aca="false">J8*J8</f>
-        <v>0.444444444444444</v>
-      </c>
+      <c r="B8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <f aca="false">(E9+4*F9+G9)/6</f>
+        <v>1.16666666666667</v>
+      </c>
+      <c r="J9" s="11" t="n">
+        <f aca="false">(G9-E9)/6</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <f aca="false">J9*J9</f>
+        <v>0.0277777777777778</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -679,26 +765,26 @@
       <c r="B10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="9" t="n">
+      <c r="E10" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="11" t="n">
         <f aca="false">(E10+4*F10+G10)/6</f>
-        <v>1.16666666666667</v>
-      </c>
-      <c r="J10" s="9" t="n">
+        <v>3.16666666666667</v>
+      </c>
+      <c r="J10" s="11" t="n">
         <f aca="false">(G10-E10)/6</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K10" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="11" t="n">
         <f aca="false">J10*J10</f>
-        <v>0.0277777777777778</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,26 +794,26 @@
       <c r="B11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="9" t="n">
+      <c r="E11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="I11" s="11" t="n">
         <f aca="false">(E11+4*F11+G11)/6</f>
-        <v>3.16666666666667</v>
-      </c>
-      <c r="J11" s="9" t="n">
+        <v>2.33333333333333</v>
+      </c>
+      <c r="J11" s="11" t="n">
         <f aca="false">(G11-E11)/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K11" s="11" t="n">
         <f aca="false">J11*J11</f>
-        <v>0.25</v>
+        <v>0.444444444444444</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,24 +823,24 @@
       <c r="B12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="9" t="n">
+      <c r="E12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="11" t="n">
         <f aca="false">(E12+4*F12+G12)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="11" t="n">
         <f aca="false">(G12-E12)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K12" s="9" t="n">
+      <c r="K12" s="11" t="n">
         <f aca="false">J12*J12</f>
         <v>0.0277777777777778</v>
       </c>
@@ -767,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="5"/>
@@ -779,52 +865,52 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9" t="n">
+      <c r="B14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="F15" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I14" s="9" t="n">
-        <f aca="false">(E14+4*F14+G14)/6</f>
-        <v>3</v>
-      </c>
-      <c r="J14" s="9" t="n">
-        <f aca="false">(G14-E14)/6</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <f aca="false">J14*J14</f>
-        <v>0.444444444444444</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="G15" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="n">
+        <f aca="false">(E15+4*F15+G15)/6</f>
+        <v>5.5</v>
+      </c>
+      <c r="J15" s="11" t="n">
+        <f aca="false">(G15-E15)/6</f>
+        <v>1.16666666666667</v>
+      </c>
+      <c r="K15" s="11" t="n">
+        <f aca="false">J15*J15</f>
+        <v>1.36111111111111</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -833,26 +919,26 @@
       <c r="B16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I16" s="9" t="n">
+      <c r="I16" s="11" t="n">
         <f aca="false">(E16+4*F16+G16)/6</f>
-        <v>5.5</v>
-      </c>
-      <c r="J16" s="9" t="n">
+        <v>2.16666666666667</v>
+      </c>
+      <c r="J16" s="11" t="n">
         <f aca="false">(G16-E16)/6</f>
-        <v>1.16666666666667</v>
-      </c>
-      <c r="K16" s="9" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="K16" s="11" t="n">
         <f aca="false">J16*J16</f>
-        <v>1.36111111111111</v>
+        <v>0.0277777777777778</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,24 +948,24 @@
       <c r="B17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" s="9" t="n">
+      <c r="E17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="11" t="n">
         <f aca="false">(E17+4*F17+G17)/6</f>
-        <v>2.16666666666667</v>
-      </c>
-      <c r="J17" s="9" t="n">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="J17" s="11" t="n">
         <f aca="false">(G17-E17)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K17" s="9" t="n">
+      <c r="K17" s="11" t="n">
         <f aca="false">J17*J17</f>
         <v>0.0277777777777778</v>
       </c>
@@ -891,26 +977,26 @@
       <c r="B18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="9" t="n">
+      <c r="E18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="11" t="n">
         <f aca="false">(E18+4*F18+G18)/6</f>
-        <v>1.83333333333333</v>
-      </c>
-      <c r="J18" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="11" t="n">
         <f aca="false">(G18-E18)/6</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K18" s="9" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K18" s="11" t="n">
         <f aca="false">J18*J18</f>
-        <v>0.0277777777777778</v>
+        <v>0.444444444444444</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -920,24 +1006,24 @@
       <c r="B19" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9" t="n">
+      <c r="E19" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="I19" s="9" t="n">
+      <c r="I19" s="11" t="n">
         <f aca="false">(E19+4*F19+G19)/6</f>
         <v>3.83333333333333</v>
       </c>
-      <c r="J19" s="9" t="n">
+      <c r="J19" s="11" t="n">
         <f aca="false">(G19-E19)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="K19" s="9" t="n">
+      <c r="K19" s="11" t="n">
         <f aca="false">J19*J19</f>
         <v>1.36111111111111</v>
       </c>
@@ -950,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="5"/>
@@ -962,50 +1048,50 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="9" t="n">
-        <f aca="false">(E21+4*F21+G21)/6</f>
-        <v>1.16666666666667</v>
-      </c>
-      <c r="J21" s="9" t="n">
-        <f aca="false">(G21-E21)/6</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <f aca="false">J21*J21</f>
-        <v>0.0277777777777778</v>
-      </c>
+      <c r="B21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="B22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="11" t="n">
+        <f aca="false">(E22+4*F22+G22)/6</f>
+        <v>2.33333333333333</v>
+      </c>
+      <c r="J22" s="11" t="n">
+        <f aca="false">(G22-E22)/6</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="K22" s="11" t="n">
+        <f aca="false">J22*J22</f>
+        <v>0.444444444444444</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -1014,26 +1100,26 @@
       <c r="B23" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" s="9" t="n">
+      <c r="E23" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I23" s="9" t="n">
+      <c r="I23" s="11" t="n">
         <f aca="false">(E23+4*F23+G23)/6</f>
-        <v>2.33333333333333</v>
-      </c>
-      <c r="J23" s="9" t="n">
+        <v>3.16666666666667</v>
+      </c>
+      <c r="J23" s="11" t="n">
         <f aca="false">(G23-E23)/6</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="K23" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" s="11" t="n">
         <f aca="false">J23*J23</f>
-        <v>0.444444444444444</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,26 +1129,26 @@
       <c r="B24" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I24" s="9" t="n">
+      <c r="E24" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="11" t="n">
         <f aca="false">(E24+4*F24+G24)/6</f>
-        <v>3.16666666666667</v>
-      </c>
-      <c r="J24" s="9" t="n">
+        <v>1.16666666666667</v>
+      </c>
+      <c r="J24" s="11" t="n">
         <f aca="false">(G24-E24)/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="K24" s="9" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="K24" s="11" t="n">
         <f aca="false">J24*J24</f>
-        <v>0.25</v>
+        <v>0.0277777777777778</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,24 +1158,24 @@
       <c r="B25" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="9" t="n">
+      <c r="E25" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I25" s="9" t="n">
+      <c r="I25" s="11" t="n">
         <f aca="false">(E25+4*F25+G25)/6</f>
         <v>3.83333333333333</v>
       </c>
-      <c r="J25" s="9" t="n">
+      <c r="J25" s="11" t="n">
         <f aca="false">(G25-E25)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K25" s="9" t="n">
+      <c r="K25" s="11" t="n">
         <f aca="false">J25*J25</f>
         <v>0.25</v>
       </c>
@@ -1101,24 +1187,24 @@
       <c r="B26" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" s="9" t="n">
+      <c r="E26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="11" t="n">
         <f aca="false">(E26+4*F26+G26)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J26" s="9" t="n">
+      <c r="J26" s="11" t="n">
         <f aca="false">(G26-E26)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K26" s="9" t="n">
+      <c r="K26" s="11" t="n">
         <f aca="false">J26*J26</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1133,24 +1219,24 @@
       <c r="D27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" s="9" t="n">
+      <c r="E27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="11" t="n">
         <f aca="false">(E27+4*F27+G27)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J27" s="9" t="n">
+      <c r="J27" s="11" t="n">
         <f aca="false">(G27-E27)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K27" s="9" t="n">
+      <c r="K27" s="11" t="n">
         <f aca="false">J27*J27</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1163,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="5"/>
@@ -1181,24 +1267,24 @@
       <c r="B29" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="9" t="n">
+      <c r="E29" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I29" s="9" t="n">
+      <c r="I29" s="11" t="n">
         <f aca="false">(E29+4*F29+G29)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J29" s="9" t="n">
+      <c r="J29" s="11" t="n">
         <f aca="false">(G29-E29)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K29" s="9" t="n">
+      <c r="K29" s="11" t="n">
         <f aca="false">J29*J29</f>
         <v>0.25</v>
       </c>
@@ -1210,24 +1296,24 @@
       <c r="B30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="9" t="n">
+      <c r="E30" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G30" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="I30" s="9" t="n">
+      <c r="I30" s="11" t="n">
         <f aca="false">(E30+4*F30+G30)/6</f>
         <v>5</v>
       </c>
-      <c r="J30" s="9" t="n">
+      <c r="J30" s="11" t="n">
         <f aca="false">(G30-E30)/6</f>
         <v>1</v>
       </c>
-      <c r="K30" s="9" t="n">
+      <c r="K30" s="11" t="n">
         <f aca="false">J30*J30</f>
         <v>1</v>
       </c>
@@ -1239,118 +1325,445 @@
       <c r="B31" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9" t="n">
+      <c r="E31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="G31" s="9" t="n">
+      <c r="G31" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="I31" s="9" t="n">
+      <c r="I31" s="11" t="n">
         <f aca="false">(E31+4*F31+G31)/6</f>
         <v>5.83333333333333</v>
       </c>
-      <c r="J31" s="9" t="n">
+      <c r="J31" s="11" t="n">
         <f aca="false">(G31-E31)/6</f>
         <v>2.5</v>
       </c>
-      <c r="K31" s="9" t="n">
+      <c r="K31" s="11" t="n">
         <f aca="false">J31*J31</f>
         <v>6.25</v>
       </c>
     </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="11" t="n">
-        <f aca="false">SUMPRODUCT(E2:E31,B2:B31)</f>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11" t="n">
+        <f aca="false">(E40+4*F40+G40)/6</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="11" t="n">
+        <f aca="false">(G40-E40)/6</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="11" t="n">
+        <f aca="false">J40*J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11" t="n">
+        <f aca="false">(E41+4*F41+G41)/6</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="11" t="n">
+        <f aca="false">(G41-E41)/6</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="11" t="n">
+        <f aca="false">J41*J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11" t="n">
+        <f aca="false">(E45+4*F45+G45)/6</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="11" t="n">
+        <f aca="false">(G45-E45)/6</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="11" t="n">
+        <f aca="false">J45*J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11" t="n">
+        <f aca="false">(E48+4*F48+G48)/6</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="11" t="n">
+        <f aca="false">(G48-E48)/6</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="11" t="n">
+        <f aca="false">J48*J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="19" t="n">
+        <f aca="false">SUMPRODUCT(E2:E48,B2:B48)</f>
         <v>27</v>
       </c>
-      <c r="F33" s="11" t="n">
-        <f aca="false">SUMPRODUCT(F2:F31,B2:B31)</f>
+      <c r="F50" s="19" t="n">
+        <f aca="false">SUMPRODUCT(F2:F48,B2:B48)</f>
         <v>54</v>
       </c>
-      <c r="G33" s="11" t="n">
-        <f aca="false">SUMPRODUCT(G2:G31,B2:B31)</f>
+      <c r="G50" s="19" t="n">
+        <f aca="false">SUMPRODUCT(G2:G48,B2:B48)</f>
         <v>103</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="11" t="n">
-        <f aca="false">SUMPRODUCT(I2:I31,B2:B31)</f>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19" t="n">
+        <f aca="false">SUMPRODUCT(I2:I48,B2:B48)</f>
         <v>57.6666666666667</v>
       </c>
-      <c r="J33" s="11" t="n">
-        <f aca="false">SUMPRODUCT(J2:J31,B2:B31)</f>
+      <c r="J50" s="19" t="n">
+        <f aca="false">SUMPRODUCT(J2:J48,B2:B48)</f>
         <v>12.6666666666667</v>
       </c>
-      <c r="K33" s="11" t="n">
-        <f aca="false">SUMPRODUCT(K2:K31,B2:B31)</f>
+      <c r="K50" s="19" t="n">
+        <f aca="false">SUMPRODUCT(K2:K48,B2:B48)</f>
         <v>13.2777777777778</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="0"/>
-      <c r="C35" s="9" t="n">
-        <f aca="false">SQRT(K33)</f>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="0"/>
+      <c r="C52" s="11" t="n">
+        <f aca="false">SQRT(K50)</f>
         <v>3.64386851817924</v>
       </c>
-      <c r="D35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="0"/>
-      <c r="C36" s="9" t="n">
+      <c r="D52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="0"/>
+      <c r="C53" s="11" t="n">
         <v>1.5</v>
       </c>
-      <c r="D36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11" t="n">
-        <f aca="false">I33-3*C35</f>
+      <c r="D53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19" t="n">
+        <f aca="false">I50-3*C52</f>
         <v>46.7350611121289</v>
       </c>
-      <c r="D37" s="13" t="n">
-        <f aca="false">C37*C36</f>
+      <c r="D54" s="21" t="n">
+        <f aca="false">C54*C53</f>
         <v>70.1025916681934</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11" t="n">
-        <f aca="false">I33+3*C35</f>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19" t="n">
+        <f aca="false">I50+3*C52</f>
         <v>68.5982722212044</v>
       </c>
-      <c r="D38" s="13" t="n">
-        <f aca="false">C38*C36</f>
+      <c r="D55" s="21" t="n">
+        <f aca="false">C55*C53</f>
         <v>102.897408331807</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K31"/>
+  <autoFilter ref="A1:K48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/example/Estimation Tool.mm.p99nr.xlsx
+++ b/example/Estimation Tool.mm.p99nr.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">...</t>
   </si>
   <si>
-    <t xml:space="preserve">this is a temporary branch for testing purposes</t>
+    <t xml:space="preserve">this is a temporary branch for theme testing</t>
   </si>
   <si>
     <t xml:space="preserve">  ...</t>

--- a/example/Estimation Tool.mm.p99nr.xlsx
+++ b/example/Estimation Tool.mm.p99nr.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$48</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$49</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$49</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t xml:space="preserve">Task / Subtask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter</t>
   </si>
   <si>
     <t xml:space="preserve">Comment</t>
@@ -343,7 +346,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -368,19 +371,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,23 +391,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -535,41 +518,41 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -580,281 +563,275 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9" t="n">
         <f aca="false">(E4+4*F4+G4)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J4" s="11" t="n">
+      <c r="J4" s="9" t="n">
         <f aca="false">(G4-E4)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K4" s="11" t="n">
+      <c r="K4" s="9" t="n">
         <f aca="false">J4*J4</f>
         <v>0.0277777777777778</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="9" t="n">
         <f aca="false">(E5+4*F5+G5)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="9" t="n">
         <f aca="false">(G5-E5)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="9" t="n">
         <f aca="false">J5*J5</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="9" t="n">
         <f aca="false">(E6+4*F6+G6)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="9" t="n">
         <f aca="false">(G6-E6)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K6" s="11" t="n">
+      <c r="K6" s="9" t="n">
         <f aca="false">J6*J6</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="9" t="n">
         <f aca="false">(E7+4*F7+G7)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="9" t="n">
         <f aca="false">(G7-E7)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="9" t="n">
         <f aca="false">J7*J7</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="9" t="n">
         <f aca="false">(E9+4*F9+G9)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="9" t="n">
         <f aca="false">(G9-E9)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="9" t="n">
         <f aca="false">J9*J9</f>
         <v>0.0277777777777778</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="9" t="n">
         <f aca="false">(E10+4*F10+G10)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J10" s="11" t="n">
+      <c r="J10" s="9" t="n">
         <f aca="false">(G10-E10)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K10" s="11" t="n">
+      <c r="K10" s="9" t="n">
         <f aca="false">J10*J10</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="9" t="n">
         <f aca="false">(E11+4*F11+G11)/6</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="J11" s="11" t="n">
+      <c r="J11" s="9" t="n">
         <f aca="false">(G11-E11)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="K11" s="9" t="n">
         <f aca="false">J11*J11</f>
         <v>0.444444444444444</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="9" t="n">
         <f aca="false">(E12+4*F12+G12)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J12" s="11" t="n">
+      <c r="J12" s="9" t="n">
         <f aca="false">(G12-E12)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K12" s="11" t="n">
+      <c r="K12" s="9" t="n">
         <f aca="false">J12*J12</f>
         <v>0.0277777777777778</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -865,179 +842,175 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="9" t="n">
         <f aca="false">(E15+4*F15+G15)/6</f>
         <v>5.5</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="9" t="n">
         <f aca="false">(G15-E15)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="K15" s="11" t="n">
+      <c r="K15" s="9" t="n">
         <f aca="false">J15*J15</f>
         <v>1.36111111111111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I16" s="11" t="n">
+      <c r="I16" s="9" t="n">
         <f aca="false">(E16+4*F16+G16)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J16" s="11" t="n">
+      <c r="J16" s="9" t="n">
         <f aca="false">(G16-E16)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K16" s="11" t="n">
+      <c r="K16" s="9" t="n">
         <f aca="false">J16*J16</f>
         <v>0.0277777777777778</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="9" t="n">
         <f aca="false">(E17+4*F17+G17)/6</f>
         <v>1.83333333333333</v>
       </c>
-      <c r="J17" s="11" t="n">
+      <c r="J17" s="9" t="n">
         <f aca="false">(G17-E17)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K17" s="11" t="n">
+      <c r="K17" s="9" t="n">
         <f aca="false">J17*J17</f>
         <v>0.0277777777777778</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="11" t="n">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I18" s="11" t="n">
+      <c r="I18" s="9" t="n">
         <f aca="false">(E18+4*F18+G18)/6</f>
         <v>3</v>
       </c>
-      <c r="J18" s="11" t="n">
+      <c r="J18" s="9" t="n">
         <f aca="false">(G18-E18)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K18" s="11" t="n">
+      <c r="K18" s="9" t="n">
         <f aca="false">J18*J18</f>
         <v>0.444444444444444</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="9" t="n">
         <f aca="false">(E19+4*F19+G19)/6</f>
         <v>3.83333333333333</v>
       </c>
-      <c r="J19" s="11" t="n">
+      <c r="J19" s="9" t="n">
         <f aca="false">(G19-E19)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="K19" s="11" t="n">
+      <c r="K19" s="9" t="n">
         <f aca="false">J19*J19</f>
         <v>1.36111111111111</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="7" t="s">
-        <v>30</v>
+      <c r="D20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1048,209 +1021,205 @@
       <c r="K20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="A21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="11" t="n">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I22" s="11" t="n">
+      <c r="I22" s="9" t="n">
         <f aca="false">(E22+4*F22+G22)/6</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="J22" s="11" t="n">
+      <c r="J22" s="9" t="n">
         <f aca="false">(G22-E22)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K22" s="11" t="n">
+      <c r="K22" s="9" t="n">
         <f aca="false">J22*J22</f>
         <v>0.444444444444444</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G23" s="11" t="n">
+      <c r="G23" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="I23" s="9" t="n">
         <f aca="false">(E23+4*F23+G23)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J23" s="11" t="n">
+      <c r="J23" s="9" t="n">
         <f aca="false">(G23-E23)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K23" s="11" t="n">
+      <c r="K23" s="9" t="n">
         <f aca="false">J23*J23</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="9" t="n">
         <f aca="false">(E24+4*F24+G24)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J24" s="11" t="n">
+      <c r="J24" s="9" t="n">
         <f aca="false">(G24-E24)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K24" s="11" t="n">
+      <c r="K24" s="9" t="n">
         <f aca="false">J24*J24</f>
         <v>0.0277777777777778</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="11" t="n">
+      <c r="G25" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I25" s="11" t="n">
+      <c r="I25" s="9" t="n">
         <f aca="false">(E25+4*F25+G25)/6</f>
         <v>3.83333333333333</v>
       </c>
-      <c r="J25" s="11" t="n">
+      <c r="J25" s="9" t="n">
         <f aca="false">(G25-E25)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K25" s="11" t="n">
+      <c r="K25" s="9" t="n">
         <f aca="false">J25*J25</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" s="11" t="n">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="9" t="n">
         <f aca="false">(E26+4*F26+G26)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J26" s="11" t="n">
+      <c r="J26" s="9" t="n">
         <f aca="false">(G26-E26)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K26" s="11" t="n">
+      <c r="K26" s="9" t="n">
         <f aca="false">J26*J26</f>
         <v>0.0277777777777778</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="9" t="n">
         <f aca="false">(E27+4*F27+G27)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J27" s="11" t="n">
+      <c r="J27" s="9" t="n">
         <f aca="false">(G27-E27)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K27" s="11" t="n">
+      <c r="K27" s="9" t="n">
         <f aca="false">J27*J27</f>
         <v>0.0277777777777778</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="7" t="s">
-        <v>40</v>
+      <c r="D28" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1262,101 +1231,99 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="11" t="n">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="11" t="n">
+      <c r="G29" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I29" s="11" t="n">
+      <c r="I29" s="9" t="n">
         <f aca="false">(E29+4*F29+G29)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J29" s="11" t="n">
+      <c r="J29" s="9" t="n">
         <f aca="false">(G29-E29)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K29" s="11" t="n">
+      <c r="K29" s="9" t="n">
         <f aca="false">J29*J29</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="11" t="n">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="G30" s="11" t="n">
+      <c r="G30" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="I30" s="11" t="n">
+      <c r="I30" s="9" t="n">
         <f aca="false">(E30+4*F30+G30)/6</f>
         <v>5</v>
       </c>
-      <c r="J30" s="11" t="n">
+      <c r="J30" s="9" t="n">
         <f aca="false">(G30-E30)/6</f>
         <v>1</v>
       </c>
-      <c r="K30" s="11" t="n">
+      <c r="K30" s="9" t="n">
         <f aca="false">J30*J30</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="G31" s="11" t="n">
+      <c r="G31" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="I31" s="11" t="n">
+      <c r="I31" s="9" t="n">
         <f aca="false">(E31+4*F31+G31)/6</f>
         <v>5.83333333333333</v>
       </c>
-      <c r="J31" s="11" t="n">
+      <c r="J31" s="9" t="n">
         <f aca="false">(G31-E31)/6</f>
         <v>2.5</v>
       </c>
-      <c r="K31" s="11" t="n">
+      <c r="K31" s="9" t="n">
         <f aca="false">J31*J31</f>
         <v>6.25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="7" t="s">
-        <v>44</v>
+      <c r="D32" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1367,79 +1334,68 @@
       <c r="K32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="A33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="A34" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="A35" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
+      <c r="A36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1450,10 +1406,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1464,10 +1417,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1478,102 +1428,95 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11" t="n">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9" t="n">
         <f aca="false">(E40+4*F40+G40)/6</f>
         <v>0</v>
       </c>
-      <c r="J40" s="11" t="n">
+      <c r="J40" s="9" t="n">
         <f aca="false">(G40-E40)/6</f>
         <v>0</v>
       </c>
-      <c r="K40" s="11" t="n">
+      <c r="K40" s="9" t="n">
         <f aca="false">J40*J40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11" t="n">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9" t="n">
         <f aca="false">(E41+4*F41+G41)/6</f>
         <v>0</v>
       </c>
-      <c r="J41" s="11" t="n">
+      <c r="J41" s="9" t="n">
         <f aca="false">(G41-E41)/6</f>
         <v>0</v>
       </c>
-      <c r="K41" s="11" t="n">
+      <c r="K41" s="9" t="n">
         <f aca="false">J41*J41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
+      <c r="A42" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
+      <c r="A43" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1584,126 +1527,122 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11" t="n">
+        <v>51</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9" t="n">
         <f aca="false">(E45+4*F45+G45)/6</f>
         <v>0</v>
       </c>
-      <c r="J45" s="11" t="n">
+      <c r="J45" s="9" t="n">
         <f aca="false">(G45-E45)/6</f>
         <v>0</v>
       </c>
-      <c r="K45" s="11" t="n">
+      <c r="K45" s="9" t="n">
         <f aca="false">J45*J45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
+      <c r="A46" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
+      <c r="A47" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11" t="n">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9" t="n">
         <f aca="false">(E48+4*F48+G48)/6</f>
         <v>0</v>
       </c>
-      <c r="J48" s="11" t="n">
+      <c r="J48" s="9" t="n">
         <f aca="false">(G48-E48)/6</f>
         <v>0</v>
       </c>
-      <c r="K48" s="11" t="n">
+      <c r="K48" s="9" t="n">
         <f aca="false">J48*J48</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19" t="n">
-        <f aca="false">SUMPRODUCT(E2:E48,B2:B48)</f>
+      <c r="A50" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14" t="n">
+        <f aca="false">SUMPRODUCT(E2:E49,B2:B49)</f>
         <v>27</v>
       </c>
-      <c r="F50" s="19" t="n">
-        <f aca="false">SUMPRODUCT(F2:F48,B2:B48)</f>
+      <c r="F50" s="14" t="n">
+        <f aca="false">SUMPRODUCT(F2:F49,B2:B49)</f>
         <v>54</v>
       </c>
-      <c r="G50" s="19" t="n">
-        <f aca="false">SUMPRODUCT(G2:G48,B2:B48)</f>
+      <c r="G50" s="14" t="n">
+        <f aca="false">SUMPRODUCT(G2:G49,B2:B49)</f>
         <v>103</v>
       </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19" t="n">
-        <f aca="false">SUMPRODUCT(I2:I48,B2:B48)</f>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14" t="n">
+        <f aca="false">SUMPRODUCT(I2:I49,B2:B49)</f>
         <v>57.6666666666667</v>
       </c>
-      <c r="J50" s="19" t="n">
-        <f aca="false">SUMPRODUCT(J2:J48,B2:B48)</f>
+      <c r="J50" s="14" t="n">
+        <f aca="false">SUMPRODUCT(J2:J49,B2:B49)</f>
         <v>12.6666666666667</v>
       </c>
-      <c r="K50" s="19" t="n">
-        <f aca="false">SUMPRODUCT(K2:K48,B2:B48)</f>
+      <c r="K50" s="14" t="n">
+        <f aca="false">SUMPRODUCT(K2:K49,B2:B49)</f>
         <v>13.2777777777778</v>
       </c>
     </row>
@@ -1714,56 +1653,56 @@
       <c r="D51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="s">
-        <v>54</v>
+      <c r="A52" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="B52" s="0"/>
-      <c r="C52" s="11" t="n">
+      <c r="C52" s="9" t="n">
         <f aca="false">SQRT(K50)</f>
         <v>3.64386851817924</v>
       </c>
       <c r="D52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20" t="s">
-        <v>55</v>
+      <c r="A53" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B53" s="0"/>
-      <c r="C53" s="11" t="n">
+      <c r="C53" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="D53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19" t="n">
+      <c r="A54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14" t="n">
         <f aca="false">I50-3*C52</f>
         <v>46.7350611121289</v>
       </c>
-      <c r="D54" s="21" t="n">
+      <c r="D54" s="16" t="n">
         <f aca="false">C54*C53</f>
         <v>70.1025916681934</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19" t="n">
+      <c r="A55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14" t="n">
         <f aca="false">I50+3*C52</f>
         <v>68.5982722212044</v>
       </c>
-      <c r="D55" s="21" t="n">
+      <c r="D55" s="16" t="n">
         <f aca="false">C55*C53</f>
         <v>102.897408331807</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K48"/>
+  <autoFilter ref="A1:K49"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/example/Estimation Tool.mm.p99nr.xlsx
+++ b/example/Estimation Tool.mm.p99nr.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$49</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$49</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$32</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t xml:space="preserve">Task / Subtask</t>
   </si>
@@ -156,36 +156,6 @@
   </si>
   <si>
     <t xml:space="preserve">  Analyze feedbacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this is a temporary branch for theme testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                ...</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -255,7 +225,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,31 +241,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD6E1E9"/>
-        <bgColor rgb="FFE0E9EF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0E9EF"/>
-        <bgColor rgb="FFEBF0F4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBF0F4"/>
-        <bgColor rgb="FFF4EFEB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F8FA"/>
-        <bgColor rgb="FFEBF0F4"/>
+        <bgColor rgb="FFE9DED6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4EFEB"/>
-        <bgColor rgb="FFEBF0F4"/>
+        <bgColor rgb="FFE9DED6"/>
       </patternFill>
     </fill>
     <fill>
@@ -346,7 +298,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -387,23 +339,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -411,7 +351,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -427,7 +367,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF5F8FA"/>
+      <rgbColor rgb="FFF4EFEB"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -444,8 +384,8 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF4EFEB"/>
-      <rgbColor rgb="FFE0E9EF"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -459,7 +399,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFEBF0F4"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
@@ -496,7 +436,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1316,393 +1256,96 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11" t="n">
+        <f aca="false">SUMPRODUCT(E2:E32,B2:B32)</f>
+        <v>27</v>
+      </c>
+      <c r="F33" s="11" t="n">
+        <f aca="false">SUMPRODUCT(F2:F32,B2:B32)</f>
+        <v>54</v>
+      </c>
+      <c r="G33" s="11" t="n">
+        <f aca="false">SUMPRODUCT(G2:G32,B2:B32)</f>
+        <v>103</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="11" t="n">
+        <f aca="false">SUMPRODUCT(I2:I32,B2:B32)</f>
+        <v>57.6666666666667</v>
+      </c>
+      <c r="J33" s="11" t="n">
+        <f aca="false">SUMPRODUCT(J2:J32,B2:B32)</f>
+        <v>12.6666666666667</v>
+      </c>
+      <c r="K33" s="11" t="n">
+        <f aca="false">SUMPRODUCT(K2:K32,B2:B32)</f>
+        <v>13.2777777777778</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="9" t="n">
+        <f aca="false">SQRT(K33)</f>
+        <v>3.64386851817924</v>
+      </c>
+      <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="B36" s="0"/>
+      <c r="C36" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="A37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="n">
+        <f aca="false">I33-3*C35</f>
+        <v>46.7350611121289</v>
+      </c>
+      <c r="D37" s="13" t="n">
+        <f aca="false">C37*C36</f>
+        <v>70.1025916681934</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9" t="n">
-        <f aca="false">(E40+4*F40+G40)/6</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="9" t="n">
-        <f aca="false">(G40-E40)/6</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <f aca="false">J40*J40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9" t="n">
-        <f aca="false">(E41+4*F41+G41)/6</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="9" t="n">
-        <f aca="false">(G41-E41)/6</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <f aca="false">J41*J41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9" t="n">
-        <f aca="false">(E45+4*F45+G45)/6</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="9" t="n">
-        <f aca="false">(G45-E45)/6</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="9" t="n">
-        <f aca="false">J45*J45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
+      <c r="A38" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9" t="n">
-        <f aca="false">(E48+4*F48+G48)/6</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="9" t="n">
-        <f aca="false">(G48-E48)/6</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="9" t="n">
-        <f aca="false">J48*J48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14" t="n">
-        <f aca="false">SUMPRODUCT(E2:E49,B2:B49)</f>
-        <v>27</v>
-      </c>
-      <c r="F50" s="14" t="n">
-        <f aca="false">SUMPRODUCT(F2:F49,B2:B49)</f>
-        <v>54</v>
-      </c>
-      <c r="G50" s="14" t="n">
-        <f aca="false">SUMPRODUCT(G2:G49,B2:B49)</f>
-        <v>103</v>
-      </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14" t="n">
-        <f aca="false">SUMPRODUCT(I2:I49,B2:B49)</f>
-        <v>57.6666666666667</v>
-      </c>
-      <c r="J50" s="14" t="n">
-        <f aca="false">SUMPRODUCT(J2:J49,B2:B49)</f>
-        <v>12.6666666666667</v>
-      </c>
-      <c r="K50" s="14" t="n">
-        <f aca="false">SUMPRODUCT(K2:K49,B2:B49)</f>
-        <v>13.2777777777778</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="0"/>
-      <c r="C52" s="9" t="n">
-        <f aca="false">SQRT(K50)</f>
-        <v>3.64386851817924</v>
-      </c>
-      <c r="D52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="0"/>
-      <c r="C53" s="9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14" t="n">
-        <f aca="false">I50-3*C52</f>
-        <v>46.7350611121289</v>
-      </c>
-      <c r="D54" s="16" t="n">
-        <f aca="false">C54*C53</f>
-        <v>70.1025916681934</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14" t="n">
-        <f aca="false">I50+3*C52</f>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11" t="n">
+        <f aca="false">I33+3*C35</f>
         <v>68.5982722212044</v>
       </c>
-      <c r="D55" s="16" t="n">
-        <f aca="false">C55*C53</f>
+      <c r="D38" s="13" t="n">
+        <f aca="false">C38*C36</f>
         <v>102.897408331807</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K49"/>
+  <autoFilter ref="A1:K32"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/example/Estimation Tool.mm.p99nr.xlsx
+++ b/example/Estimation Tool.mm.p99nr.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Estimates" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$32</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$32</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Estimates!$A$1:$K$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Estimates!$A$1:$K$32</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t xml:space="preserve">Task / Subtask</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve">Min (P=99%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max (P=99%)</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1335,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="11" t="n">

--- a/example/Estimation Tool.mm.p99nr.xlsx
+++ b/example/Estimation Tool.mm.p99nr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -24,6 +24,9 @@
     <t>Filter</t>
   </si>
   <si>
+    <t>MVP</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Total (MVP)</t>
   </si>
   <si>
     <t>Standard deviation</t>
@@ -580,7 +586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,38 +614,40 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s"/>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s"/>
       <c r="I1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
       <c r="D2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6" t="s"/>
       <c r="F2" s="6" t="s"/>
@@ -651,7 +659,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="10" t="s"/>
       <c r="C3" s="9" t="s"/>
@@ -666,12 +674,14 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s"/>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D4" s="3" t="s"/>
       <c r="E4" s="12" t="n">
         <v>1</v>
@@ -698,12 +708,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s"/>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D5" s="3" t="s"/>
       <c r="E5" s="12" t="n">
         <v>1</v>
@@ -730,12 +742,14 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s"/>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D6" s="3" t="s"/>
       <c r="E6" s="12" t="n">
         <v>1</v>
@@ -762,12 +776,14 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s"/>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D7" s="3" t="s"/>
       <c r="E7" s="12" t="n">
         <v>0</v>
@@ -794,7 +810,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10" t="s"/>
       <c r="C8" s="9" t="s"/>
@@ -809,12 +825,14 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s"/>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D9" s="3" t="s"/>
       <c r="E9" s="12" t="n">
         <v>1</v>
@@ -841,12 +859,14 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s"/>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D10" s="3" t="s"/>
       <c r="E10" s="12" t="n">
         <v>2</v>
@@ -873,12 +893,14 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s"/>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D11" s="3" t="s"/>
       <c r="E11" s="12" t="n">
         <v>1</v>
@@ -905,12 +927,14 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s"/>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D12" s="3" t="s"/>
       <c r="E12" s="12" t="n">
         <v>1</v>
@@ -937,12 +961,12 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="7" t="s"/>
       <c r="C13" s="6" t="s"/>
       <c r="D13" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6" t="s"/>
       <c r="F13" s="6" t="s"/>
@@ -954,12 +978,12 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="10" t="s"/>
       <c r="C14" s="9" t="s"/>
       <c r="D14" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="9" t="s"/>
       <c r="F14" s="9" t="s"/>
@@ -971,12 +995,14 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s"/>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D15" s="3" t="s"/>
       <c r="E15" s="12" t="n">
         <v>3</v>
@@ -1003,12 +1029,14 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s"/>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D16" s="3" t="s"/>
       <c r="E16" s="12" t="n">
         <v>2</v>
@@ -1035,12 +1063,14 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s"/>
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D17" s="3" t="s"/>
       <c r="E17" s="12" t="n">
         <v>1</v>
@@ -1067,12 +1097,14 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s"/>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D18" s="3" t="s"/>
       <c r="E18" s="12" t="n">
         <v>1</v>
@@ -1099,12 +1131,14 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s"/>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D19" s="3" t="s"/>
       <c r="E19" s="12" t="n">
         <v>0</v>
@@ -1131,12 +1165,12 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="7" t="s"/>
       <c r="C20" s="6" t="s"/>
       <c r="D20" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="6" t="s"/>
       <c r="F20" s="6" t="s"/>
@@ -1148,7 +1182,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="10" t="s"/>
       <c r="C21" s="9" t="s"/>
@@ -1163,12 +1197,14 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s"/>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D22" s="3" t="s"/>
       <c r="E22" s="12" t="n">
         <v>1</v>
@@ -1195,12 +1231,14 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s"/>
+      <c r="C23" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D23" s="3" t="s"/>
       <c r="E23" s="12" t="n">
         <v>2</v>
@@ -1227,12 +1265,14 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s"/>
+      <c r="C24" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D24" s="3" t="s"/>
       <c r="E24" s="12" t="n">
         <v>1</v>
@@ -1259,12 +1299,14 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s"/>
+      <c r="C25" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D25" s="3" t="s"/>
       <c r="E25" s="12" t="n">
         <v>2</v>
@@ -1291,12 +1333,14 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s"/>
+      <c r="C26" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D26" s="3" t="s"/>
       <c r="E26" s="12" t="n">
         <v>1</v>
@@ -1323,14 +1367,16 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s"/>
+      <c r="C27" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D27" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" s="12" t="n">
         <v>1</v>
@@ -1357,12 +1403,12 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="7" t="s"/>
       <c r="C28" s="6" t="s"/>
       <c r="D28" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" s="6" t="s"/>
       <c r="F28" s="6" t="s"/>
@@ -1374,12 +1420,14 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s"/>
+      <c r="C29" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D29" s="3" t="s"/>
       <c r="E29" s="12" t="n">
         <v>2</v>
@@ -1406,12 +1454,14 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="1" t="s"/>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D30" s="3" t="s"/>
       <c r="E30" s="12" t="n">
         <v>2</v>
@@ -1438,12 +1488,14 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s"/>
+      <c r="C31" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D31" s="3" t="s"/>
       <c r="E31" s="12" t="n">
         <v>0</v>
@@ -1470,7 +1522,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="13" t="s"/>
       <c r="C33" s="13" t="s"/>
@@ -1502,47 +1554,80 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="12">
-        <f>SQRT(K33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="15" t="s">
+      <c r="A35" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="12" t="n">
+      <c r="B35" s="13" t="s"/>
+      <c r="C35" s="13" t="s"/>
+      <c r="D35" s="13" t="s"/>
+      <c r="E35" s="14">
+        <f>SUMPRODUCT(E2:E32,B2:B32,C2:C32)</f>
+        <v/>
+      </c>
+      <c r="F35" s="14">
+        <f>SUMPRODUCT(F2:F32,B2:B32,C2:C32)</f>
+        <v/>
+      </c>
+      <c r="G35" s="14">
+        <f>SUMPRODUCT(G2:G32,B2:B32,C2:C32)</f>
+        <v/>
+      </c>
+      <c r="H35" s="13" t="s"/>
+      <c r="I35" s="14">
+        <f>SUMPRODUCT(I2:I32,B2:B32,C2:C32)</f>
+        <v/>
+      </c>
+      <c r="J35" s="14">
+        <f>SUMPRODUCT(J2:J32,B2:B32,C2:C32)</f>
+        <v/>
+      </c>
+      <c r="K35" s="14">
+        <f>SUMPRODUCT(K2:K32,B2:B32,C2:C32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="12">
+        <f>SQRT(K35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="12" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="13" t="s"/>
-      <c r="C37" s="14">
-        <f>I33-3*C35</f>
-        <v/>
-      </c>
-      <c r="D37" s="16">
-        <f>C37*C36</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="13" t="s"/>
-      <c r="C38" s="14">
-        <f>I33+3*C35</f>
-        <v/>
-      </c>
-      <c r="D38" s="16">
-        <f>C38*C36</f>
+    <row r="39" spans="1:11">
+      <c r="A39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="13" t="s"/>
+      <c r="C39" s="14">
+        <f>I35-3*C37</f>
+        <v/>
+      </c>
+      <c r="D39" s="16">
+        <f>C39*C38</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="13" t="s"/>
+      <c r="C40" s="14">
+        <f>I35+3*C37</f>
+        <v/>
+      </c>
+      <c r="D40" s="16">
+        <f>C40*C38</f>
         <v/>
       </c>
     </row>

--- a/example/Estimation Tool.mm.p99nr.xlsx
+++ b/example/Estimation Tool.mm.p99nr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Filter</t>
   </si>
   <si>
-    <t>MVP</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Total (MVP)</t>
   </si>
   <si>
     <t>Standard deviation</t>
@@ -586,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,40 +608,38 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="5" t="s"/>
       <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="5" t="s"/>
       <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
       <c r="D2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s"/>
       <c r="F2" s="6" t="s"/>
@@ -659,7 +651,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="10" t="s"/>
       <c r="C3" s="9" t="s"/>
@@ -674,14 +666,12 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4" s="1" t="s"/>
       <c r="D4" s="3" t="s"/>
       <c r="E4" s="12" t="n">
         <v>1</v>
@@ -708,14 +698,12 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C5" s="1" t="s"/>
       <c r="D5" s="3" t="s"/>
       <c r="E5" s="12" t="n">
         <v>1</v>
@@ -742,14 +730,12 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C6" s="1" t="s"/>
       <c r="D6" s="3" t="s"/>
       <c r="E6" s="12" t="n">
         <v>1</v>
@@ -776,14 +762,12 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C7" s="1" t="s"/>
       <c r="D7" s="3" t="s"/>
       <c r="E7" s="12" t="n">
         <v>0</v>
@@ -810,7 +794,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="10" t="s"/>
       <c r="C8" s="9" t="s"/>
@@ -825,14 +809,12 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C9" s="1" t="s"/>
       <c r="D9" s="3" t="s"/>
       <c r="E9" s="12" t="n">
         <v>1</v>
@@ -859,14 +841,12 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C10" s="1" t="s"/>
       <c r="D10" s="3" t="s"/>
       <c r="E10" s="12" t="n">
         <v>2</v>
@@ -893,14 +873,12 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C11" s="1" t="s"/>
       <c r="D11" s="3" t="s"/>
       <c r="E11" s="12" t="n">
         <v>1</v>
@@ -927,14 +905,12 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C12" s="1" t="s"/>
       <c r="D12" s="3" t="s"/>
       <c r="E12" s="12" t="n">
         <v>1</v>
@@ -961,12 +937,12 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="7" t="s"/>
       <c r="C13" s="6" t="s"/>
       <c r="D13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="6" t="s"/>
       <c r="F13" s="6" t="s"/>
@@ -978,12 +954,12 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="10" t="s"/>
       <c r="C14" s="9" t="s"/>
       <c r="D14" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="9" t="s"/>
       <c r="F14" s="9" t="s"/>
@@ -995,14 +971,12 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C15" s="1" t="s"/>
       <c r="D15" s="3" t="s"/>
       <c r="E15" s="12" t="n">
         <v>3</v>
@@ -1029,14 +1003,12 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C16" s="1" t="s"/>
       <c r="D16" s="3" t="s"/>
       <c r="E16" s="12" t="n">
         <v>2</v>
@@ -1063,14 +1035,12 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C17" s="1" t="s"/>
       <c r="D17" s="3" t="s"/>
       <c r="E17" s="12" t="n">
         <v>1</v>
@@ -1097,14 +1067,12 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C18" s="1" t="s"/>
       <c r="D18" s="3" t="s"/>
       <c r="E18" s="12" t="n">
         <v>1</v>
@@ -1131,14 +1099,12 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C19" s="1" t="s"/>
       <c r="D19" s="3" t="s"/>
       <c r="E19" s="12" t="n">
         <v>0</v>
@@ -1165,12 +1131,12 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="7" t="s"/>
       <c r="C20" s="6" t="s"/>
       <c r="D20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="6" t="s"/>
       <c r="F20" s="6" t="s"/>
@@ -1182,7 +1148,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="10" t="s"/>
       <c r="C21" s="9" t="s"/>
@@ -1197,14 +1163,12 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C22" s="1" t="s"/>
       <c r="D22" s="3" t="s"/>
       <c r="E22" s="12" t="n">
         <v>1</v>
@@ -1231,14 +1195,12 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C23" s="1" t="s"/>
       <c r="D23" s="3" t="s"/>
       <c r="E23" s="12" t="n">
         <v>2</v>
@@ -1265,14 +1227,12 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C24" s="1" t="s"/>
       <c r="D24" s="3" t="s"/>
       <c r="E24" s="12" t="n">
         <v>1</v>
@@ -1299,14 +1259,12 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C25" s="1" t="s"/>
       <c r="D25" s="3" t="s"/>
       <c r="E25" s="12" t="n">
         <v>2</v>
@@ -1333,14 +1291,12 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C26" s="1" t="s"/>
       <c r="D26" s="3" t="s"/>
       <c r="E26" s="12" t="n">
         <v>1</v>
@@ -1367,16 +1323,14 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s"/>
+      <c r="D27" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E27" s="12" t="n">
         <v>1</v>
@@ -1403,12 +1357,12 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="7" t="s"/>
       <c r="C28" s="6" t="s"/>
       <c r="D28" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="6" t="s"/>
       <c r="F28" s="6" t="s"/>
@@ -1420,14 +1374,12 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C29" s="1" t="s"/>
       <c r="D29" s="3" t="s"/>
       <c r="E29" s="12" t="n">
         <v>2</v>
@@ -1454,14 +1406,12 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C30" s="1" t="s"/>
       <c r="D30" s="3" t="s"/>
       <c r="E30" s="12" t="n">
         <v>2</v>
@@ -1488,14 +1438,12 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C31" s="1" t="s"/>
       <c r="D31" s="3" t="s"/>
       <c r="E31" s="12" t="n">
         <v>0</v>
@@ -1522,7 +1470,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="13" t="s"/>
       <c r="C33" s="13" t="s"/>
@@ -1554,80 +1502,47 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="12">
+        <f>SQRT(K33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="13" t="s"/>
-      <c r="C35" s="13" t="s"/>
-      <c r="D35" s="13" t="s"/>
-      <c r="E35" s="14">
-        <f>SUMPRODUCT(E2:E32,B2:B32,C2:C32)</f>
-        <v/>
-      </c>
-      <c r="F35" s="14">
-        <f>SUMPRODUCT(F2:F32,B2:B32,C2:C32)</f>
-        <v/>
-      </c>
-      <c r="G35" s="14">
-        <f>SUMPRODUCT(G2:G32,B2:B32,C2:C32)</f>
-        <v/>
-      </c>
-      <c r="H35" s="13" t="s"/>
-      <c r="I35" s="14">
-        <f>SUMPRODUCT(I2:I32,B2:B32,C2:C32)</f>
-        <v/>
-      </c>
-      <c r="J35" s="14">
-        <f>SUMPRODUCT(J2:J32,B2:B32,C2:C32)</f>
-        <v/>
-      </c>
-      <c r="K35" s="14">
-        <f>SUMPRODUCT(K2:K32,B2:B32,C2:C32)</f>
-        <v/>
+      <c r="C36" s="12" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="12">
-        <f>SQRT(K35)</f>
+      <c r="B37" s="13" t="s"/>
+      <c r="C37" s="14">
+        <f>I33-3*C35</f>
+        <v/>
+      </c>
+      <c r="D37" s="16">
+        <f>C37*C36</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="12" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="13" t="s"/>
-      <c r="C39" s="14">
-        <f>I35-3*C37</f>
-        <v/>
-      </c>
-      <c r="D39" s="16">
-        <f>C39*C38</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="13" t="s"/>
-      <c r="C40" s="14">
-        <f>I35+3*C37</f>
-        <v/>
-      </c>
-      <c r="D40" s="16">
-        <f>C40*C38</f>
+      <c r="B38" s="13" t="s"/>
+      <c r="C38" s="14">
+        <f>I33+3*C35</f>
+        <v/>
+      </c>
+      <c r="D38" s="16">
+        <f>C38*C36</f>
         <v/>
       </c>
     </row>

--- a/example/Estimation Tool.mm.p99nr.xlsx
+++ b/example/Estimation Tool.mm.p99nr.xlsx
@@ -580,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,9 +599,10 @@
     <col customWidth="1" max="9" min="9" style="4" width="7"/>
     <col customWidth="1" max="10" min="10" style="4" width="7"/>
     <col customWidth="1" max="11" min="11" style="4" width="7"/>
+    <col hidden="1" max="26" min="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:26">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -631,8 +632,9 @@
       <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="Z1" s="2" t="s"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -648,8 +650,11 @@
       <c r="I2" s="6" t="s"/>
       <c r="J2" s="6" t="s"/>
       <c r="K2" s="6" t="s"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -663,8 +668,11 @@
       <c r="I3" s="9" t="s"/>
       <c r="J3" s="9" t="s"/>
       <c r="K3" s="9" t="s"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="Z3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -696,7 +704,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -728,7 +736,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -760,7 +768,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -792,7 +800,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:26">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -807,7 +815,7 @@
       <c r="J8" s="9" t="s"/>
       <c r="K8" s="9" t="s"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -839,7 +847,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -871,7 +879,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -903,7 +911,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -935,7 +943,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:26">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
@@ -952,7 +960,7 @@
       <c r="J13" s="6" t="s"/>
       <c r="K13" s="6" t="s"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:26">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
@@ -969,7 +977,7 @@
       <c r="J14" s="9" t="s"/>
       <c r="K14" s="9" t="s"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1001,7 +1009,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:26">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1033,7 +1041,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:26">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1065,7 +1073,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:26">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1097,7 +1105,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:26">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1129,7 +1137,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:26">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -1146,7 +1154,7 @@
       <c r="J20" s="6" t="s"/>
       <c r="K20" s="6" t="s"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:26">
       <c r="A21" s="9" t="s">
         <v>32</v>
       </c>
@@ -1161,7 +1169,7 @@
       <c r="J21" s="9" t="s"/>
       <c r="K21" s="9" t="s"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1193,7 +1201,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:26">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -1225,7 +1233,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:26">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1257,7 +1265,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:26">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1289,7 +1297,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:26">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1321,7 +1329,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:26">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1355,7 +1363,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:26">
       <c r="A28" s="6" t="s">
         <v>40</v>
       </c>
@@ -1372,7 +1380,7 @@
       <c r="J28" s="6" t="s"/>
       <c r="K28" s="6" t="s"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:26">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:26">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -1436,7 +1444,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:26">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,7 +1476,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:26">
       <c r="A33" s="13" t="s">
         <v>44</v>
       </c>
@@ -1501,7 +1509,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:26">
       <c r="A35" s="15" t="s">
         <v>45</v>
       </c>
@@ -1510,7 +1518,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:26">
       <c r="A36" s="15" t="s">
         <v>46</v>
       </c>
@@ -1518,7 +1526,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:26">
       <c r="A37" s="13" t="s">
         <v>47</v>
       </c>
@@ -1532,7 +1540,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:26">
       <c r="A38" s="13" t="s">
         <v>48</v>
       </c>
@@ -1548,6 +1556,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K32"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B32" type="list">
+      <formula1>$Z$1:$Z$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/example/Estimation Tool.mm.p99nr.xlsx
+++ b/example/Estimation Tool.mm.p99nr.xlsx
@@ -9,14 +9,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estimates" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Estimates!$A$1:$K$32</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Estimates!$A$1:$O$32</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -24,6 +24,9 @@
     <t>Filter</t>
   </si>
   <si>
+    <t>Module</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -156,7 +159,7 @@
     <t>Standard deviation</t>
   </si>
   <si>
-    <t>K</t>
+    <t>O</t>
   </si>
   <si>
     <t>Min (P=99%)</t>
@@ -580,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:AZ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,19 +593,23 @@
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="40"/>
     <col customWidth="1" hidden="1" max="2" min="2" style="2" width="3"/>
-    <col customWidth="1" max="3" min="3" style="1" width="6"/>
-    <col customWidth="1" max="4" min="4" style="3" width="50"/>
-    <col customWidth="1" max="5" min="5" style="4" width="7"/>
-    <col customWidth="1" max="6" min="6" style="4" width="7"/>
-    <col customWidth="1" max="7" min="7" style="4" width="7"/>
-    <col customWidth="1" max="8" min="8" style="1" width="7"/>
-    <col customWidth="1" max="9" min="9" style="4" width="7"/>
-    <col customWidth="1" max="10" min="10" style="4" width="7"/>
-    <col customWidth="1" max="11" min="11" style="4" width="7"/>
-    <col hidden="1" max="26" min="26"/>
+    <col customWidth="1" max="3" min="3" style="1" width="8"/>
+    <col customWidth="1" hidden="1" max="4" min="4" style="3" width="10"/>
+    <col customWidth="1" hidden="1" max="5" min="5" style="3" width="20"/>
+    <col customWidth="1" hidden="1" max="6" min="6" style="3" width="20"/>
+    <col customWidth="1" hidden="1" max="7" min="7" style="3" width="20"/>
+    <col customWidth="1" max="8" min="8" style="3" width="50"/>
+    <col customWidth="1" max="9" min="9" style="4" width="8"/>
+    <col customWidth="1" max="10" min="10" style="4" width="8"/>
+    <col customWidth="1" max="11" min="11" style="4" width="8"/>
+    <col customWidth="1" max="12" min="12" style="1" width="4"/>
+    <col customWidth="1" max="13" min="13" style="4" width="8"/>
+    <col customWidth="1" max="14" min="14" style="4" width="8"/>
+    <col customWidth="1" max="15" min="15" style="4" width="8"/>
+    <col hidden="1" max="52" min="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:52">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -613,888 +620,1005 @@
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="5" t="s"/>
+      <c r="F1" s="5" t="s"/>
+      <c r="G1" s="5" t="s"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s"/>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s"/>
+      <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="2" t="s"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="O1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ1" s="2" t="s"/>
+    </row>
+    <row r="2" spans="1:52">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="6" t="s"/>
       <c r="E2" s="6" t="s"/>
       <c r="F2" s="6" t="s"/>
       <c r="G2" s="6" t="s"/>
-      <c r="H2" s="6" t="s"/>
+      <c r="H2" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I2" s="6" t="s"/>
       <c r="J2" s="6" t="s"/>
       <c r="K2" s="6" t="s"/>
-      <c r="Z2" s="2" t="n">
+      <c r="L2" s="6" t="s"/>
+      <c r="M2" s="6" t="s"/>
+      <c r="N2" s="6" t="s"/>
+      <c r="O2" s="6" t="s"/>
+      <c r="AZ2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:52">
       <c r="A3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="10" t="s"/>
       <c r="C3" s="9" t="s"/>
-      <c r="D3" s="11" t="s"/>
+      <c r="D3" s="9" t="s"/>
       <c r="E3" s="9" t="s"/>
       <c r="F3" s="9" t="s"/>
       <c r="G3" s="9" t="s"/>
-      <c r="H3" s="9" t="s"/>
+      <c r="H3" s="11" t="s"/>
       <c r="I3" s="9" t="s"/>
       <c r="J3" s="9" t="s"/>
       <c r="K3" s="9" t="s"/>
-      <c r="Z3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="L3" s="9" t="s"/>
+      <c r="M3" s="9" t="s"/>
+      <c r="N3" s="9" t="s"/>
+      <c r="O3" s="9" t="s"/>
+      <c r="AZ3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s"/>
-      <c r="D4" s="3" t="s"/>
-      <c r="E4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s"/>
-      <c r="I4" s="12">
-        <f>(E4+4*F4+G4)/6</f>
-        <v/>
-      </c>
-      <c r="J4" s="12">
-        <f>(G4-E4)/6</f>
-        <v/>
-      </c>
-      <c r="K4" s="12">
-        <f>J4*J4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="D4" s="1" t="s"/>
+      <c r="E4" s="1" t="s"/>
+      <c r="F4" s="1" t="s"/>
+      <c r="G4" s="1" t="s"/>
+      <c r="H4" s="3" t="s"/>
+      <c r="I4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s"/>
+      <c r="M4" s="12">
+        <f>(I4+4*J4+K4)/6</f>
+        <v/>
+      </c>
+      <c r="N4" s="12">
+        <f>(K4-I4)/6</f>
+        <v/>
+      </c>
+      <c r="O4" s="12">
+        <f>N4*N4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s"/>
-      <c r="D5" s="3" t="s"/>
-      <c r="E5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="12" t="n">
+      <c r="D5" s="1" t="s"/>
+      <c r="E5" s="1" t="s"/>
+      <c r="F5" s="1" t="s"/>
+      <c r="G5" s="1" t="s"/>
+      <c r="H5" s="3" t="s"/>
+      <c r="I5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s"/>
-      <c r="I5" s="12">
-        <f>(E5+4*F5+G5)/6</f>
-        <v/>
-      </c>
-      <c r="J5" s="12">
-        <f>(G5-E5)/6</f>
-        <v/>
-      </c>
-      <c r="K5" s="12">
-        <f>J5*J5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="L5" s="1" t="s"/>
+      <c r="M5" s="12">
+        <f>(I5+4*J5+K5)/6</f>
+        <v/>
+      </c>
+      <c r="N5" s="12">
+        <f>(K5-I5)/6</f>
+        <v/>
+      </c>
+      <c r="O5" s="12">
+        <f>N5*N5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s"/>
-      <c r="D6" s="3" t="s"/>
-      <c r="E6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="12" t="n">
+      <c r="D6" s="1" t="s"/>
+      <c r="E6" s="1" t="s"/>
+      <c r="F6" s="1" t="s"/>
+      <c r="G6" s="1" t="s"/>
+      <c r="H6" s="3" t="s"/>
+      <c r="I6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="1" t="s"/>
-      <c r="I6" s="12">
-        <f>(E6+4*F6+G6)/6</f>
-        <v/>
-      </c>
-      <c r="J6" s="12">
-        <f>(G6-E6)/6</f>
-        <v/>
-      </c>
-      <c r="K6" s="12">
-        <f>J6*J6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="L6" s="1" t="s"/>
+      <c r="M6" s="12">
+        <f>(I6+4*J6+K6)/6</f>
+        <v/>
+      </c>
+      <c r="N6" s="12">
+        <f>(K6-I6)/6</f>
+        <v/>
+      </c>
+      <c r="O6" s="12">
+        <f>N6*N6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s"/>
-      <c r="D7" s="3" t="s"/>
-      <c r="E7" s="12" t="n">
+      <c r="D7" s="1" t="s"/>
+      <c r="E7" s="1" t="s"/>
+      <c r="F7" s="1" t="s"/>
+      <c r="G7" s="1" t="s"/>
+      <c r="H7" s="3" t="s"/>
+      <c r="I7" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12" t="n">
+      <c r="J7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="1" t="s"/>
-      <c r="I7" s="12">
-        <f>(E7+4*F7+G7)/6</f>
-        <v/>
-      </c>
-      <c r="J7" s="12">
-        <f>(G7-E7)/6</f>
-        <v/>
-      </c>
-      <c r="K7" s="12">
-        <f>J7*J7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="L7" s="1" t="s"/>
+      <c r="M7" s="12">
+        <f>(I7+4*J7+K7)/6</f>
+        <v/>
+      </c>
+      <c r="N7" s="12">
+        <f>(K7-I7)/6</f>
+        <v/>
+      </c>
+      <c r="O7" s="12">
+        <f>N7*N7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
       <c r="A8" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10" t="s"/>
       <c r="C8" s="9" t="s"/>
-      <c r="D8" s="11" t="s"/>
+      <c r="D8" s="9" t="s"/>
       <c r="E8" s="9" t="s"/>
       <c r="F8" s="9" t="s"/>
       <c r="G8" s="9" t="s"/>
-      <c r="H8" s="9" t="s"/>
+      <c r="H8" s="11" t="s"/>
       <c r="I8" s="9" t="s"/>
       <c r="J8" s="9" t="s"/>
       <c r="K8" s="9" t="s"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="L8" s="9" t="s"/>
+      <c r="M8" s="9" t="s"/>
+      <c r="N8" s="9" t="s"/>
+      <c r="O8" s="9" t="s"/>
+    </row>
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s"/>
-      <c r="D9" s="3" t="s"/>
-      <c r="E9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1" t="s"/>
-      <c r="I9" s="12">
-        <f>(E9+4*F9+G9)/6</f>
-        <v/>
-      </c>
-      <c r="J9" s="12">
-        <f>(G9-E9)/6</f>
-        <v/>
-      </c>
-      <c r="K9" s="12">
-        <f>J9*J9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="D9" s="1" t="s"/>
+      <c r="E9" s="1" t="s"/>
+      <c r="F9" s="1" t="s"/>
+      <c r="G9" s="1" t="s"/>
+      <c r="H9" s="3" t="s"/>
+      <c r="I9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1" t="s"/>
+      <c r="M9" s="12">
+        <f>(I9+4*J9+K9)/6</f>
+        <v/>
+      </c>
+      <c r="N9" s="12">
+        <f>(K9-I9)/6</f>
+        <v/>
+      </c>
+      <c r="O9" s="12">
+        <f>N9*N9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s"/>
-      <c r="D10" s="3" t="s"/>
-      <c r="E10" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="12" t="n">
+      <c r="D10" s="1" t="s"/>
+      <c r="E10" s="1" t="s"/>
+      <c r="F10" s="1" t="s"/>
+      <c r="G10" s="1" t="s"/>
+      <c r="H10" s="3" t="s"/>
+      <c r="I10" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="K10" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H10" s="1" t="s"/>
-      <c r="I10" s="12">
-        <f>(E10+4*F10+G10)/6</f>
-        <v/>
-      </c>
-      <c r="J10" s="12">
-        <f>(G10-E10)/6</f>
-        <v/>
-      </c>
-      <c r="K10" s="12">
-        <f>J10*J10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="L10" s="1" t="s"/>
+      <c r="M10" s="12">
+        <f>(I10+4*J10+K10)/6</f>
+        <v/>
+      </c>
+      <c r="N10" s="12">
+        <f>(K10-I10)/6</f>
+        <v/>
+      </c>
+      <c r="O10" s="12">
+        <f>N10*N10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s"/>
-      <c r="D11" s="3" t="s"/>
-      <c r="E11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="12" t="n">
+      <c r="D11" s="1" t="s"/>
+      <c r="E11" s="1" t="s"/>
+      <c r="F11" s="1" t="s"/>
+      <c r="G11" s="1" t="s"/>
+      <c r="H11" s="3" t="s"/>
+      <c r="I11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H11" s="1" t="s"/>
-      <c r="I11" s="12">
-        <f>(E11+4*F11+G11)/6</f>
-        <v/>
-      </c>
-      <c r="J11" s="12">
-        <f>(G11-E11)/6</f>
-        <v/>
-      </c>
-      <c r="K11" s="12">
-        <f>J11*J11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="L11" s="1" t="s"/>
+      <c r="M11" s="12">
+        <f>(I11+4*J11+K11)/6</f>
+        <v/>
+      </c>
+      <c r="N11" s="12">
+        <f>(K11-I11)/6</f>
+        <v/>
+      </c>
+      <c r="O11" s="12">
+        <f>N11*N11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s"/>
-      <c r="D12" s="3" t="s"/>
-      <c r="E12" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1" t="s"/>
-      <c r="I12" s="12">
-        <f>(E12+4*F12+G12)/6</f>
-        <v/>
-      </c>
-      <c r="J12" s="12">
-        <f>(G12-E12)/6</f>
-        <v/>
-      </c>
-      <c r="K12" s="12">
-        <f>J12*J12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="D12" s="1" t="s"/>
+      <c r="E12" s="1" t="s"/>
+      <c r="F12" s="1" t="s"/>
+      <c r="G12" s="1" t="s"/>
+      <c r="H12" s="3" t="s"/>
+      <c r="I12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="s"/>
+      <c r="M12" s="12">
+        <f>(I12+4*J12+K12)/6</f>
+        <v/>
+      </c>
+      <c r="N12" s="12">
+        <f>(K12-I12)/6</f>
+        <v/>
+      </c>
+      <c r="O12" s="12">
+        <f>N12*N12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="7" t="s"/>
       <c r="C13" s="6" t="s"/>
-      <c r="D13" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="D13" s="6" t="s"/>
       <c r="E13" s="6" t="s"/>
       <c r="F13" s="6" t="s"/>
       <c r="G13" s="6" t="s"/>
-      <c r="H13" s="6" t="s"/>
+      <c r="H13" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="I13" s="6" t="s"/>
       <c r="J13" s="6" t="s"/>
       <c r="K13" s="6" t="s"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="L13" s="6" t="s"/>
+      <c r="M13" s="6" t="s"/>
+      <c r="N13" s="6" t="s"/>
+      <c r="O13" s="6" t="s"/>
+    </row>
+    <row r="14" spans="1:52">
       <c r="A14" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="10" t="s"/>
       <c r="C14" s="9" t="s"/>
-      <c r="D14" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="D14" s="9" t="s"/>
       <c r="E14" s="9" t="s"/>
       <c r="F14" s="9" t="s"/>
       <c r="G14" s="9" t="s"/>
-      <c r="H14" s="9" t="s"/>
+      <c r="H14" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="9" t="s"/>
       <c r="J14" s="9" t="s"/>
       <c r="K14" s="9" t="s"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="L14" s="9" t="s"/>
+      <c r="M14" s="9" t="s"/>
+      <c r="N14" s="9" t="s"/>
+      <c r="O14" s="9" t="s"/>
+    </row>
+    <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s"/>
-      <c r="D15" s="3" t="s"/>
-      <c r="E15" s="12" t="n">
+      <c r="D15" s="1" t="s"/>
+      <c r="E15" s="1" t="s"/>
+      <c r="F15" s="1" t="s"/>
+      <c r="G15" s="1" t="s"/>
+      <c r="H15" s="3" t="s"/>
+      <c r="I15" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="12" t="n">
+      <c r="J15" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="12" t="n">
+      <c r="K15" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="H15" s="1" t="s"/>
-      <c r="I15" s="12">
-        <f>(E15+4*F15+G15)/6</f>
-        <v/>
-      </c>
-      <c r="J15" s="12">
-        <f>(G15-E15)/6</f>
-        <v/>
-      </c>
-      <c r="K15" s="12">
-        <f>J15*J15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="L15" s="1" t="s"/>
+      <c r="M15" s="12">
+        <f>(I15+4*J15+K15)/6</f>
+        <v/>
+      </c>
+      <c r="N15" s="12">
+        <f>(K15-I15)/6</f>
+        <v/>
+      </c>
+      <c r="O15" s="12">
+        <f>N15*N15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s"/>
-      <c r="D16" s="3" t="s"/>
-      <c r="E16" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="12" t="n">
+      <c r="D16" s="1" t="s"/>
+      <c r="E16" s="1" t="s"/>
+      <c r="F16" s="1" t="s"/>
+      <c r="G16" s="1" t="s"/>
+      <c r="H16" s="3" t="s"/>
+      <c r="I16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="H16" s="1" t="s"/>
-      <c r="I16" s="12">
-        <f>(E16+4*F16+G16)/6</f>
-        <v/>
-      </c>
-      <c r="J16" s="12">
-        <f>(G16-E16)/6</f>
-        <v/>
-      </c>
-      <c r="K16" s="12">
-        <f>J16*J16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="L16" s="1" t="s"/>
+      <c r="M16" s="12">
+        <f>(I16+4*J16+K16)/6</f>
+        <v/>
+      </c>
+      <c r="N16" s="12">
+        <f>(K16-I16)/6</f>
+        <v/>
+      </c>
+      <c r="O16" s="12">
+        <f>N16*N16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s"/>
-      <c r="D17" s="3" t="s"/>
-      <c r="E17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1" t="s"/>
-      <c r="I17" s="12">
-        <f>(E17+4*F17+G17)/6</f>
-        <v/>
-      </c>
-      <c r="J17" s="12">
-        <f>(G17-E17)/6</f>
-        <v/>
-      </c>
-      <c r="K17" s="12">
-        <f>J17*J17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="D17" s="1" t="s"/>
+      <c r="E17" s="1" t="s"/>
+      <c r="F17" s="1" t="s"/>
+      <c r="G17" s="1" t="s"/>
+      <c r="H17" s="3" t="s"/>
+      <c r="I17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1" t="s"/>
+      <c r="M17" s="12">
+        <f>(I17+4*J17+K17)/6</f>
+        <v/>
+      </c>
+      <c r="N17" s="12">
+        <f>(K17-I17)/6</f>
+        <v/>
+      </c>
+      <c r="O17" s="12">
+        <f>N17*N17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:52">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s"/>
-      <c r="D18" s="3" t="s"/>
-      <c r="E18" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12" t="n">
+      <c r="D18" s="1" t="s"/>
+      <c r="E18" s="1" t="s"/>
+      <c r="F18" s="1" t="s"/>
+      <c r="G18" s="1" t="s"/>
+      <c r="H18" s="3" t="s"/>
+      <c r="I18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="K18" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H18" s="1" t="s"/>
-      <c r="I18" s="12">
-        <f>(E18+4*F18+G18)/6</f>
-        <v/>
-      </c>
-      <c r="J18" s="12">
-        <f>(G18-E18)/6</f>
-        <v/>
-      </c>
-      <c r="K18" s="12">
-        <f>J18*J18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="L18" s="1" t="s"/>
+      <c r="M18" s="12">
+        <f>(I18+4*J18+K18)/6</f>
+        <v/>
+      </c>
+      <c r="N18" s="12">
+        <f>(K18-I18)/6</f>
+        <v/>
+      </c>
+      <c r="O18" s="12">
+        <f>N18*N18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s"/>
-      <c r="D19" s="3" t="s"/>
-      <c r="E19" s="12" t="n">
+      <c r="D19" s="1" t="s"/>
+      <c r="E19" s="1" t="s"/>
+      <c r="F19" s="1" t="s"/>
+      <c r="G19" s="1" t="s"/>
+      <c r="H19" s="3" t="s"/>
+      <c r="I19" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="12" t="n">
+      <c r="J19" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="K19" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="H19" s="1" t="s"/>
-      <c r="I19" s="12">
-        <f>(E19+4*F19+G19)/6</f>
-        <v/>
-      </c>
-      <c r="J19" s="12">
-        <f>(G19-E19)/6</f>
-        <v/>
-      </c>
-      <c r="K19" s="12">
-        <f>J19*J19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="L19" s="1" t="s"/>
+      <c r="M19" s="12">
+        <f>(I19+4*J19+K19)/6</f>
+        <v/>
+      </c>
+      <c r="N19" s="12">
+        <f>(K19-I19)/6</f>
+        <v/>
+      </c>
+      <c r="O19" s="12">
+        <f>N19*N19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:52">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="7" t="s"/>
       <c r="C20" s="6" t="s"/>
-      <c r="D20" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="D20" s="6" t="s"/>
       <c r="E20" s="6" t="s"/>
       <c r="F20" s="6" t="s"/>
       <c r="G20" s="6" t="s"/>
-      <c r="H20" s="6" t="s"/>
+      <c r="H20" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="I20" s="6" t="s"/>
       <c r="J20" s="6" t="s"/>
       <c r="K20" s="6" t="s"/>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="L20" s="6" t="s"/>
+      <c r="M20" s="6" t="s"/>
+      <c r="N20" s="6" t="s"/>
+      <c r="O20" s="6" t="s"/>
+    </row>
+    <row r="21" spans="1:52">
       <c r="A21" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="10" t="s"/>
       <c r="C21" s="9" t="s"/>
-      <c r="D21" s="11" t="s"/>
+      <c r="D21" s="9" t="s"/>
       <c r="E21" s="9" t="s"/>
       <c r="F21" s="9" t="s"/>
       <c r="G21" s="9" t="s"/>
-      <c r="H21" s="9" t="s"/>
+      <c r="H21" s="11" t="s"/>
       <c r="I21" s="9" t="s"/>
       <c r="J21" s="9" t="s"/>
       <c r="K21" s="9" t="s"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="L21" s="9" t="s"/>
+      <c r="M21" s="9" t="s"/>
+      <c r="N21" s="9" t="s"/>
+      <c r="O21" s="9" t="s"/>
+    </row>
+    <row r="22" spans="1:52">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s"/>
-      <c r="D22" s="3" t="s"/>
-      <c r="E22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="12" t="n">
+      <c r="D22" s="1" t="s"/>
+      <c r="E22" s="1" t="s"/>
+      <c r="F22" s="1" t="s"/>
+      <c r="G22" s="1" t="s"/>
+      <c r="H22" s="3" t="s"/>
+      <c r="I22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H22" s="1" t="s"/>
-      <c r="I22" s="12">
-        <f>(E22+4*F22+G22)/6</f>
-        <v/>
-      </c>
-      <c r="J22" s="12">
-        <f>(G22-E22)/6</f>
-        <v/>
-      </c>
-      <c r="K22" s="12">
-        <f>J22*J22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="L22" s="1" t="s"/>
+      <c r="M22" s="12">
+        <f>(I22+4*J22+K22)/6</f>
+        <v/>
+      </c>
+      <c r="N22" s="12">
+        <f>(K22-I22)/6</f>
+        <v/>
+      </c>
+      <c r="O22" s="12">
+        <f>N22*N22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s"/>
-      <c r="D23" s="3" t="s"/>
-      <c r="E23" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" s="12" t="n">
+      <c r="D23" s="1" t="s"/>
+      <c r="E23" s="1" t="s"/>
+      <c r="F23" s="1" t="s"/>
+      <c r="G23" s="1" t="s"/>
+      <c r="H23" s="3" t="s"/>
+      <c r="I23" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G23" s="12" t="n">
+      <c r="K23" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H23" s="1" t="s"/>
-      <c r="I23" s="12">
-        <f>(E23+4*F23+G23)/6</f>
-        <v/>
-      </c>
-      <c r="J23" s="12">
-        <f>(G23-E23)/6</f>
-        <v/>
-      </c>
-      <c r="K23" s="12">
-        <f>J23*J23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="L23" s="1" t="s"/>
+      <c r="M23" s="12">
+        <f>(I23+4*J23+K23)/6</f>
+        <v/>
+      </c>
+      <c r="N23" s="12">
+        <f>(K23-I23)/6</f>
+        <v/>
+      </c>
+      <c r="O23" s="12">
+        <f>N23*N23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s"/>
-      <c r="D24" s="3" t="s"/>
-      <c r="E24" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1" t="s"/>
-      <c r="I24" s="12">
-        <f>(E24+4*F24+G24)/6</f>
-        <v/>
-      </c>
-      <c r="J24" s="12">
-        <f>(G24-E24)/6</f>
-        <v/>
-      </c>
-      <c r="K24" s="12">
-        <f>J24*J24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="D24" s="1" t="s"/>
+      <c r="E24" s="1" t="s"/>
+      <c r="F24" s="1" t="s"/>
+      <c r="G24" s="1" t="s"/>
+      <c r="H24" s="3" t="s"/>
+      <c r="I24" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1" t="s"/>
+      <c r="M24" s="12">
+        <f>(I24+4*J24+K24)/6</f>
+        <v/>
+      </c>
+      <c r="N24" s="12">
+        <f>(K24-I24)/6</f>
+        <v/>
+      </c>
+      <c r="O24" s="12">
+        <f>N24*N24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s"/>
-      <c r="D25" s="3" t="s"/>
-      <c r="E25" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="12" t="n">
+      <c r="D25" s="1" t="s"/>
+      <c r="E25" s="1" t="s"/>
+      <c r="F25" s="1" t="s"/>
+      <c r="G25" s="1" t="s"/>
+      <c r="H25" s="3" t="s"/>
+      <c r="I25" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="12" t="n">
+      <c r="K25" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H25" s="1" t="s"/>
-      <c r="I25" s="12">
-        <f>(E25+4*F25+G25)/6</f>
-        <v/>
-      </c>
-      <c r="J25" s="12">
-        <f>(G25-E25)/6</f>
-        <v/>
-      </c>
-      <c r="K25" s="12">
-        <f>J25*J25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="L25" s="1" t="s"/>
+      <c r="M25" s="12">
+        <f>(I25+4*J25+K25)/6</f>
+        <v/>
+      </c>
+      <c r="N25" s="12">
+        <f>(K25-I25)/6</f>
+        <v/>
+      </c>
+      <c r="O25" s="12">
+        <f>N25*N25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:52">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s"/>
-      <c r="D26" s="3" t="s"/>
-      <c r="E26" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1" t="s"/>
-      <c r="I26" s="12">
-        <f>(E26+4*F26+G26)/6</f>
-        <v/>
-      </c>
-      <c r="J26" s="12">
-        <f>(G26-E26)/6</f>
-        <v/>
-      </c>
-      <c r="K26" s="12">
-        <f>J26*J26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="D26" s="1" t="s"/>
+      <c r="E26" s="1" t="s"/>
+      <c r="F26" s="1" t="s"/>
+      <c r="G26" s="1" t="s"/>
+      <c r="H26" s="3" t="s"/>
+      <c r="I26" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1" t="s"/>
+      <c r="M26" s="12">
+        <f>(I26+4*J26+K26)/6</f>
+        <v/>
+      </c>
+      <c r="N26" s="12">
+        <f>(K26-I26)/6</f>
+        <v/>
+      </c>
+      <c r="O26" s="12">
+        <f>N26*N26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s"/>
-      <c r="D27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1" t="s"/>
-      <c r="I27" s="12">
-        <f>(E27+4*F27+G27)/6</f>
-        <v/>
-      </c>
-      <c r="J27" s="12">
-        <f>(G27-E27)/6</f>
-        <v/>
-      </c>
-      <c r="K27" s="12">
-        <f>J27*J27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="D27" s="1" t="s"/>
+      <c r="E27" s="1" t="s"/>
+      <c r="F27" s="1" t="s"/>
+      <c r="G27" s="1" t="s"/>
+      <c r="H27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1" t="s"/>
+      <c r="M27" s="12">
+        <f>(I27+4*J27+K27)/6</f>
+        <v/>
+      </c>
+      <c r="N27" s="12">
+        <f>(K27-I27)/6</f>
+        <v/>
+      </c>
+      <c r="O27" s="12">
+        <f>N27*N27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:52">
       <c r="A28" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="7" t="s"/>
       <c r="C28" s="6" t="s"/>
-      <c r="D28" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="D28" s="6" t="s"/>
       <c r="E28" s="6" t="s"/>
       <c r="F28" s="6" t="s"/>
       <c r="G28" s="6" t="s"/>
-      <c r="H28" s="6" t="s"/>
+      <c r="H28" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="I28" s="6" t="s"/>
       <c r="J28" s="6" t="s"/>
       <c r="K28" s="6" t="s"/>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="L28" s="6" t="s"/>
+      <c r="M28" s="6" t="s"/>
+      <c r="N28" s="6" t="s"/>
+      <c r="O28" s="6" t="s"/>
+    </row>
+    <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s"/>
-      <c r="D29" s="3" t="s"/>
-      <c r="E29" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" s="12" t="n">
+      <c r="D29" s="1" t="s"/>
+      <c r="E29" s="1" t="s"/>
+      <c r="F29" s="1" t="s"/>
+      <c r="G29" s="1" t="s"/>
+      <c r="H29" s="3" t="s"/>
+      <c r="I29" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="12" t="n">
+      <c r="K29" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="H29" s="1" t="s"/>
-      <c r="I29" s="12">
-        <f>(E29+4*F29+G29)/6</f>
-        <v/>
-      </c>
-      <c r="J29" s="12">
-        <f>(G29-E29)/6</f>
-        <v/>
-      </c>
-      <c r="K29" s="12">
-        <f>J29*J29</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="L29" s="1" t="s"/>
+      <c r="M29" s="12">
+        <f>(I29+4*J29+K29)/6</f>
+        <v/>
+      </c>
+      <c r="N29" s="12">
+        <f>(K29-I29)/6</f>
+        <v/>
+      </c>
+      <c r="O29" s="12">
+        <f>N29*N29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:52">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s"/>
-      <c r="D30" s="3" t="s"/>
-      <c r="E30" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="12" t="n">
+      <c r="D30" s="1" t="s"/>
+      <c r="E30" s="1" t="s"/>
+      <c r="F30" s="1" t="s"/>
+      <c r="G30" s="1" t="s"/>
+      <c r="H30" s="3" t="s"/>
+      <c r="I30" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G30" s="12" t="n">
+      <c r="K30" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="H30" s="1" t="s"/>
-      <c r="I30" s="12">
-        <f>(E30+4*F30+G30)/6</f>
-        <v/>
-      </c>
-      <c r="J30" s="12">
-        <f>(G30-E30)/6</f>
-        <v/>
-      </c>
-      <c r="K30" s="12">
-        <f>J30*J30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="L30" s="1" t="s"/>
+      <c r="M30" s="12">
+        <f>(I30+4*J30+K30)/6</f>
+        <v/>
+      </c>
+      <c r="N30" s="12">
+        <f>(K30-I30)/6</f>
+        <v/>
+      </c>
+      <c r="O30" s="12">
+        <f>N30*N30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:52">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s"/>
-      <c r="D31" s="3" t="s"/>
-      <c r="E31" s="12" t="n">
+      <c r="D31" s="1" t="s"/>
+      <c r="E31" s="1" t="s"/>
+      <c r="F31" s="1" t="s"/>
+      <c r="G31" s="1" t="s"/>
+      <c r="H31" s="3" t="s"/>
+      <c r="I31" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F31" s="12" t="n">
+      <c r="J31" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G31" s="12" t="n">
+      <c r="K31" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="H31" s="1" t="s"/>
-      <c r="I31" s="12">
-        <f>(E31+4*F31+G31)/6</f>
-        <v/>
-      </c>
-      <c r="J31" s="12">
-        <f>(G31-E31)/6</f>
-        <v/>
-      </c>
-      <c r="K31" s="12">
-        <f>J31*J31</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="L31" s="1" t="s"/>
+      <c r="M31" s="12">
+        <f>(I31+4*J31+K31)/6</f>
+        <v/>
+      </c>
+      <c r="N31" s="12">
+        <f>(K31-I31)/6</f>
+        <v/>
+      </c>
+      <c r="O31" s="12">
+        <f>N31*N31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:52">
       <c r="A33" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="13" t="s"/>
       <c r="C33" s="13" t="s"/>
       <c r="D33" s="13" t="s"/>
-      <c r="E33" s="14">
-        <f>SUMPRODUCT(E2:E32,B2:B32)</f>
-        <v/>
-      </c>
-      <c r="F33" s="14">
-        <f>SUMPRODUCT(F2:F32,B2:B32)</f>
-        <v/>
-      </c>
-      <c r="G33" s="14">
-        <f>SUMPRODUCT(G2:G32,B2:B32)</f>
-        <v/>
-      </c>
+      <c r="E33" s="13" t="s"/>
+      <c r="F33" s="13" t="s"/>
+      <c r="G33" s="13" t="s"/>
       <c r="H33" s="13" t="s"/>
       <c r="I33" s="14">
         <f>SUMPRODUCT(I2:I32,B2:B32)</f>
@@ -1508,57 +1632,78 @@
         <f>SUMPRODUCT(K2:K32,B2:B32)</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="L33" s="13" t="s"/>
+      <c r="M33" s="14">
+        <f>SUMPRODUCT(M2:M32,B2:B32)</f>
+        <v/>
+      </c>
+      <c r="N33" s="14">
+        <f>SUMPRODUCT(N2:N32,B2:B32)</f>
+        <v/>
+      </c>
+      <c r="O33" s="14">
+        <f>SUMPRODUCT(O2:O32,B2:B32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:52">
       <c r="A35" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="12">
-        <f>SQRT(K33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+        <f>SQRT(O33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:52">
       <c r="A36" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="12" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
-      <c r="A37" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="13" t="s"/>
-      <c r="C37" s="14">
-        <f>I33-3*C35</f>
-        <v/>
-      </c>
-      <c r="D37" s="16">
-        <f>C37*C36</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:52">
       <c r="A38" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="13" t="s"/>
       <c r="C38" s="14">
-        <f>I33+3*C35</f>
-        <v/>
-      </c>
-      <c r="D38" s="16">
+        <f>M33-3*C35</f>
+        <v/>
+      </c>
+      <c r="D38" s="13" t="s"/>
+      <c r="E38" s="13" t="s"/>
+      <c r="F38" s="13" t="s"/>
+      <c r="G38" s="13" t="s"/>
+      <c r="H38" s="16">
         <f>C38*C36</f>
         <v/>
       </c>
     </row>
+    <row r="39" spans="1:52">
+      <c r="A39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="13" t="s"/>
+      <c r="C39" s="14">
+        <f>M33+3*C35</f>
+        <v/>
+      </c>
+      <c r="D39" s="13" t="s"/>
+      <c r="E39" s="13" t="s"/>
+      <c r="F39" s="13" t="s"/>
+      <c r="G39" s="13" t="s"/>
+      <c r="H39" s="16">
+        <f>C39*C36</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K32"/>
+  <autoFilter ref="A1:O32"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B32" type="list">
-      <formula1>$Z$1:$Z$3</formula1>
+      <formula1>$AZ$1:$AZ$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/example/Estimation Tool.mm.p99nr.xlsx
+++ b/example/Estimation Tool.mm.p99nr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -48,6 +48,9 @@
     <t>Sq</t>
   </si>
   <si>
+    <t>Role</t>
+  </si>
+  <si>
     <t>Stage 1: Implement the Idea</t>
   </si>
   <si>
@@ -159,7 +162,7 @@
     <t>Standard deviation</t>
   </si>
   <si>
-    <t>O</t>
+    <t>K</t>
   </si>
   <si>
     <t>Min (P=99%)</t>
@@ -606,6 +609,7 @@
     <col customWidth="1" max="13" min="13" style="4" width="8"/>
     <col customWidth="1" max="14" min="14" style="4" width="8"/>
     <col customWidth="1" max="15" min="15" style="4" width="8"/>
+    <col customWidth="1" hidden="1" max="16" min="16" style="1" width="3"/>
     <col hidden="1" max="52" min="52"/>
   </cols>
   <sheetData>
@@ -645,11 +649,14 @@
       <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="P1" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AZ1" s="2" t="s"/>
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
@@ -658,7 +665,7 @@
       <c r="F2" s="6" t="s"/>
       <c r="G2" s="6" t="s"/>
       <c r="H2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="6" t="s"/>
       <c r="J2" s="6" t="s"/>
@@ -667,13 +674,14 @@
       <c r="M2" s="6" t="s"/>
       <c r="N2" s="6" t="s"/>
       <c r="O2" s="6" t="s"/>
+      <c r="P2" s="6" t="s"/>
       <c r="AZ2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="10" t="s"/>
       <c r="C3" s="9" t="s"/>
@@ -689,13 +697,14 @@
       <c r="M3" s="9" t="s"/>
       <c r="N3" s="9" t="s"/>
       <c r="O3" s="9" t="s"/>
+      <c r="P3" s="9" t="s"/>
       <c r="AZ3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
@@ -728,10 +737,11 @@
         <f>N4*N4</f>
         <v/>
       </c>
+      <c r="P4" s="1" t="s"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1</v>
@@ -764,10 +774,11 @@
         <f>N5*N5</f>
         <v/>
       </c>
+      <c r="P5" s="1" t="s"/>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
@@ -800,10 +811,11 @@
         <f>N6*N6</f>
         <v/>
       </c>
+      <c r="P6" s="1" t="s"/>
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>1</v>
@@ -836,10 +848,11 @@
         <f>N7*N7</f>
         <v/>
       </c>
+      <c r="P7" s="1" t="s"/>
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="10" t="s"/>
       <c r="C8" s="9" t="s"/>
@@ -855,10 +868,11 @@
       <c r="M8" s="9" t="s"/>
       <c r="N8" s="9" t="s"/>
       <c r="O8" s="9" t="s"/>
+      <c r="P8" s="9" t="s"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
@@ -891,10 +905,11 @@
         <f>N9*N9</f>
         <v/>
       </c>
+      <c r="P9" s="1" t="s"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
@@ -927,10 +942,11 @@
         <f>N10*N10</f>
         <v/>
       </c>
+      <c r="P10" s="1" t="s"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1</v>
@@ -963,10 +979,11 @@
         <f>N11*N11</f>
         <v/>
       </c>
+      <c r="P11" s="1" t="s"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>1</v>
@@ -999,10 +1016,11 @@
         <f>N12*N12</f>
         <v/>
       </c>
+      <c r="P12" s="1" t="s"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="7" t="s"/>
       <c r="C13" s="6" t="s"/>
@@ -1011,7 +1029,7 @@
       <c r="F13" s="6" t="s"/>
       <c r="G13" s="6" t="s"/>
       <c r="H13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="6" t="s"/>
       <c r="J13" s="6" t="s"/>
@@ -1020,10 +1038,11 @@
       <c r="M13" s="6" t="s"/>
       <c r="N13" s="6" t="s"/>
       <c r="O13" s="6" t="s"/>
+      <c r="P13" s="6" t="s"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="10" t="s"/>
       <c r="C14" s="9" t="s"/>
@@ -1032,7 +1051,7 @@
       <c r="F14" s="9" t="s"/>
       <c r="G14" s="9" t="s"/>
       <c r="H14" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9" t="s"/>
       <c r="J14" s="9" t="s"/>
@@ -1041,10 +1060,11 @@
       <c r="M14" s="9" t="s"/>
       <c r="N14" s="9" t="s"/>
       <c r="O14" s="9" t="s"/>
+      <c r="P14" s="9" t="s"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
@@ -1077,10 +1097,11 @@
         <f>N15*N15</f>
         <v/>
       </c>
+      <c r="P15" s="1" t="s"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1</v>
@@ -1113,10 +1134,11 @@
         <f>N16*N16</f>
         <v/>
       </c>
+      <c r="P16" s="1" t="s"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
@@ -1149,10 +1171,11 @@
         <f>N17*N17</f>
         <v/>
       </c>
+      <c r="P17" s="1" t="s"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>1</v>
@@ -1185,10 +1208,11 @@
         <f>N18*N18</f>
         <v/>
       </c>
+      <c r="P18" s="1" t="s"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
@@ -1221,10 +1245,11 @@
         <f>N19*N19</f>
         <v/>
       </c>
+      <c r="P19" s="1" t="s"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="7" t="s"/>
       <c r="C20" s="6" t="s"/>
@@ -1233,7 +1258,7 @@
       <c r="F20" s="6" t="s"/>
       <c r="G20" s="6" t="s"/>
       <c r="H20" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" s="6" t="s"/>
       <c r="J20" s="6" t="s"/>
@@ -1242,10 +1267,11 @@
       <c r="M20" s="6" t="s"/>
       <c r="N20" s="6" t="s"/>
       <c r="O20" s="6" t="s"/>
+      <c r="P20" s="6" t="s"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="10" t="s"/>
       <c r="C21" s="9" t="s"/>
@@ -1261,10 +1287,11 @@
       <c r="M21" s="9" t="s"/>
       <c r="N21" s="9" t="s"/>
       <c r="O21" s="9" t="s"/>
+      <c r="P21" s="9" t="s"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>1</v>
@@ -1297,10 +1324,11 @@
         <f>N22*N22</f>
         <v/>
       </c>
+      <c r="P22" s="1" t="s"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
@@ -1333,10 +1361,11 @@
         <f>N23*N23</f>
         <v/>
       </c>
+      <c r="P23" s="1" t="s"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>1</v>
@@ -1369,10 +1398,11 @@
         <f>N24*N24</f>
         <v/>
       </c>
+      <c r="P24" s="1" t="s"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
@@ -1405,10 +1435,11 @@
         <f>N25*N25</f>
         <v/>
       </c>
+      <c r="P25" s="1" t="s"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>1</v>
@@ -1441,10 +1472,11 @@
         <f>N26*N26</f>
         <v/>
       </c>
+      <c r="P26" s="1" t="s"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
@@ -1455,7 +1487,7 @@
       <c r="F27" s="1" t="s"/>
       <c r="G27" s="1" t="s"/>
       <c r="H27" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I27" s="12" t="n">
         <v>1</v>
@@ -1479,10 +1511,11 @@
         <f>N27*N27</f>
         <v/>
       </c>
+      <c r="P27" s="1" t="s"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="7" t="s"/>
       <c r="C28" s="6" t="s"/>
@@ -1491,7 +1524,7 @@
       <c r="F28" s="6" t="s"/>
       <c r="G28" s="6" t="s"/>
       <c r="H28" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I28" s="6" t="s"/>
       <c r="J28" s="6" t="s"/>
@@ -1500,10 +1533,11 @@
       <c r="M28" s="6" t="s"/>
       <c r="N28" s="6" t="s"/>
       <c r="O28" s="6" t="s"/>
+      <c r="P28" s="6" t="s"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
@@ -1536,10 +1570,11 @@
         <f>N29*N29</f>
         <v/>
       </c>
+      <c r="P29" s="1" t="s"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1</v>
@@ -1572,10 +1607,11 @@
         <f>N30*N30</f>
         <v/>
       </c>
+      <c r="P30" s="1" t="s"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1</v>
@@ -1608,10 +1644,11 @@
         <f>N31*N31</f>
         <v/>
       </c>
+      <c r="P31" s="1" t="s"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="13" t="s"/>
       <c r="C33" s="13" t="s"/>
@@ -1621,34 +1658,34 @@
       <c r="G33" s="13" t="s"/>
       <c r="H33" s="13" t="s"/>
       <c r="I33" s="14">
-        <f>SUMPRODUCT(I2:I32,B2:B32)</f>
+        <f>SUMIFS(I2:I32,B2:B32,"=1")</f>
         <v/>
       </c>
       <c r="J33" s="14">
-        <f>SUMPRODUCT(J2:J32,B2:B32)</f>
+        <f>SUMIFS(J2:J32,B2:B32,"=1")</f>
         <v/>
       </c>
       <c r="K33" s="14">
-        <f>SUMPRODUCT(K2:K32,B2:B32)</f>
+        <f>SUMIFS(K2:K32,B2:B32,"=1")</f>
         <v/>
       </c>
       <c r="L33" s="13" t="s"/>
       <c r="M33" s="14">
-        <f>SUMPRODUCT(M2:M32,B2:B32)</f>
+        <f>SUMIFS(M2:M32,B2:B32,"=1")</f>
         <v/>
       </c>
       <c r="N33" s="14">
-        <f>SUMPRODUCT(N2:N32,B2:B32)</f>
+        <f>SUMIFS(N2:N32,B2:B32,"=1")</f>
         <v/>
       </c>
       <c r="O33" s="14">
-        <f>SUMPRODUCT(O2:O32,B2:B32)</f>
+        <f>SUMIFS(O2:O32,B2:B32,"=1")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35" s="12">
         <f>SQRT(O33)</f>
@@ -1657,7 +1694,7 @@
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="12" t="n">
         <v>1.5</v>
@@ -1665,7 +1702,7 @@
     </row>
     <row r="38" spans="1:52">
       <c r="A38" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="13" t="s"/>
       <c r="C38" s="14">
@@ -1683,7 +1720,7 @@
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="13" t="s"/>
       <c r="C39" s="14">

--- a/example/Estimation Tool.mm.p99nr.xlsx
+++ b/example/Estimation Tool.mm.p99nr.xlsx
@@ -239,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -284,6 +284,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
@@ -594,13 +597,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="40"/>
+    <col customWidth="1" max="1" min="1" style="1" width="50"/>
     <col customWidth="1" hidden="1" max="2" min="2" style="2" width="3"/>
     <col customWidth="1" max="3" min="3" style="1" width="8"/>
-    <col customWidth="1" hidden="1" max="4" min="4" style="3" width="10"/>
-    <col customWidth="1" hidden="1" max="5" min="5" style="3" width="20"/>
-    <col customWidth="1" hidden="1" max="6" min="6" style="3" width="20"/>
-    <col customWidth="1" hidden="1" max="7" min="7" style="3" width="20"/>
+    <col customWidth="1" hidden="1" max="4" min="4" style="3" width="50"/>
+    <col customWidth="1" hidden="1" max="5" min="5" style="3" width="10"/>
+    <col customWidth="1" hidden="1" max="6" min="6" style="3" width="10"/>
+    <col customWidth="1" hidden="1" max="7" min="7" style="3" width="10"/>
     <col customWidth="1" max="8" min="8" style="3" width="50"/>
     <col customWidth="1" max="9" min="9" style="4" width="8"/>
     <col customWidth="1" max="10" min="10" style="4" width="8"/>
@@ -1691,6 +1694,10 @@
         <f>SQRT(O33)</f>
         <v/>
       </c>
+      <c r="H35" s="16">
+        <f>C35/M33</f>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="15" t="s">
@@ -1713,7 +1720,7 @@
       <c r="E38" s="13" t="s"/>
       <c r="F38" s="13" t="s"/>
       <c r="G38" s="13" t="s"/>
-      <c r="H38" s="16">
+      <c r="H38" s="17">
         <f>C38*C36</f>
         <v/>
       </c>
@@ -1731,7 +1738,7 @@
       <c r="E39" s="13" t="s"/>
       <c r="F39" s="13" t="s"/>
       <c r="G39" s="13" t="s"/>
-      <c r="H39" s="16">
+      <c r="H39" s="17">
         <f>C39*C36</f>
         <v/>
       </c>

--- a/example/Estimation Tool.mm.p99nr.xlsx
+++ b/example/Estimation Tool.mm.p99nr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>Min (P=99%)</t>
   </si>
   <si>
     <t>Max (P=99%)</t>
@@ -1661,28 +1658,28 @@
       <c r="G33" s="13" t="s"/>
       <c r="H33" s="13" t="s"/>
       <c r="I33" s="14">
-        <f>SUMIFS(I2:I32,B2:B32,"=1")</f>
+        <f>SUMIFS(Estimates!I2:I32,Estimates!B2:B32,"=1")</f>
         <v/>
       </c>
       <c r="J33" s="14">
-        <f>SUMIFS(J2:J32,B2:B32,"=1")</f>
+        <f>SUMIFS(Estimates!J2:J32,Estimates!B2:B32,"=1")</f>
         <v/>
       </c>
       <c r="K33" s="14">
-        <f>SUMIFS(K2:K32,B2:B32,"=1")</f>
+        <f>SUMIFS(Estimates!K2:K32,Estimates!B2:B32,"=1")</f>
         <v/>
       </c>
       <c r="L33" s="13" t="s"/>
       <c r="M33" s="14">
-        <f>SUMIFS(M2:M32,B2:B32,"=1")</f>
+        <f>SUMIFS(Estimates!M2:M32,Estimates!B2:B32,"=1")</f>
         <v/>
       </c>
       <c r="N33" s="14">
-        <f>SUMIFS(N2:N32,B2:B32,"=1")</f>
+        <f>SUMIFS(Estimates!N2:N32,Estimates!B2:B32,"=1")</f>
         <v/>
       </c>
       <c r="O33" s="14">
-        <f>SUMIFS(O2:O32,B2:B32,"=1")</f>
+        <f>SUMIFS(Estimates!O2:O32,Estimates!B2:B32,"=1")</f>
         <v/>
       </c>
     </row>
@@ -1709,11 +1706,11 @@
     </row>
     <row r="38" spans="1:52">
       <c r="A38" s="13" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B38" s="13" t="s"/>
       <c r="C38" s="14">
-        <f>M33-3*C35</f>
+        <f>M33-1*C35</f>
         <v/>
       </c>
       <c r="D38" s="13" t="s"/>
@@ -1721,13 +1718,13 @@
       <c r="F38" s="13" t="s"/>
       <c r="G38" s="13" t="s"/>
       <c r="H38" s="17">
-        <f>C38*C36</f>
+        <f>C38*Estimates!C36</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="13" t="s"/>
       <c r="C39" s="14">
@@ -1739,7 +1736,7 @@
       <c r="F39" s="13" t="s"/>
       <c r="G39" s="13" t="s"/>
       <c r="H39" s="17">
-        <f>C39*C36</f>
+        <f>C39*Estimates!C36</f>
         <v/>
       </c>
     </row>
